--- a/src/attributions/attributions_saliency_traj_462.xlsx
+++ b/src/attributions/attributions_saliency_traj_462.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG17"/>
+  <dimension ref="A1:GG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.336990976597008e-06</v>
+        <v>0.003004289232194424</v>
       </c>
       <c r="B4" t="n">
-        <v>9.692676030681469e-06</v>
+        <v>0.01552944723516703</v>
       </c>
       <c r="C4" t="n">
-        <v>3.148475684611185e-07</v>
+        <v>0.001504352549090981</v>
       </c>
       <c r="D4" t="n">
-        <v>1.044562668539584e-05</v>
+        <v>0.003624139586463571</v>
       </c>
       <c r="E4" t="n">
-        <v>2.467692411300959e-06</v>
+        <v>0.00117072812281549</v>
       </c>
       <c r="F4" t="n">
-        <v>5.049441824667156e-07</v>
+        <v>0.01146056409925222</v>
       </c>
       <c r="G4" t="n">
-        <v>4.315927526477026e-07</v>
+        <v>0.000260020256973803</v>
       </c>
       <c r="H4" t="n">
-        <v>2.13092516787583e-06</v>
+        <v>0.0007418498862534761</v>
       </c>
       <c r="I4" t="n">
-        <v>1.032407340062491e-06</v>
+        <v>0.0004187093582004309</v>
       </c>
       <c r="J4" t="n">
-        <v>5.624871164400247e-07</v>
+        <v>0.00543427187949419</v>
       </c>
       <c r="K4" t="n">
-        <v>9.503279216005467e-06</v>
+        <v>0.01038522738963366</v>
       </c>
       <c r="L4" t="n">
-        <v>1.923649961099727e-06</v>
+        <v>0.00112147768959403</v>
       </c>
       <c r="M4" t="n">
-        <v>1.011018412100384e-05</v>
+        <v>0.004960739519447088</v>
       </c>
       <c r="N4" t="n">
-        <v>3.349186499690404e-06</v>
+        <v>0.001423364505171776</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67118184890569e-06</v>
+        <v>0.009053803980350494</v>
       </c>
       <c r="P4" t="n">
-        <v>2.280709168189787e-07</v>
+        <v>0.001013509230688214</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.602246129550622e-06</v>
+        <v>0.00311509775929153</v>
       </c>
       <c r="R4" t="n">
-        <v>3.037924670934444e-06</v>
+        <v>0.001553558162413538</v>
       </c>
       <c r="S4" t="n">
-        <v>7.636695045221131e-07</v>
+        <v>0.0002859231317415833</v>
       </c>
       <c r="T4" t="n">
-        <v>6.097781692915305e-07</v>
+        <v>0.0001357755390927196</v>
       </c>
       <c r="U4" t="n">
-        <v>7.53476342651993e-07</v>
+        <v>0.001079270732589066</v>
       </c>
       <c r="V4" t="n">
-        <v>4.471663714866736e-07</v>
+        <v>0.0004320546286180615</v>
       </c>
       <c r="W4" t="n">
-        <v>5.608108494925546e-06</v>
+        <v>0.001223662751726806</v>
       </c>
       <c r="X4" t="n">
-        <v>1.892200742759087e-07</v>
+        <v>0.0005895710783079267</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.185553391129361e-07</v>
+        <v>0.001768056419678032</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.480979320462211e-07</v>
+        <v>0.000806607713457197</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.530228127601731e-07</v>
+        <v>0.0002691122936084867</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.138230226795713e-07</v>
+        <v>0.001795128453522921</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.240160256405943e-06</v>
+        <v>0.001913142506964505</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.377970128643938e-07</v>
+        <v>0.001895353430882096</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.718237965382286e-06</v>
+        <v>0.001333218649961054</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.655234200370614e-06</v>
+        <v>0.00253349868580699</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.514866181030811e-07</v>
+        <v>0.001581967575475574</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.554642706963932e-07</v>
+        <v>0.0005923734279349446</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.162966777381371e-09</v>
+        <v>0.0003580035991035402</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.837108183939563e-07</v>
+        <v>0.001402080059051514</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.771666686385288e-06</v>
+        <v>0.0008031213656067848</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.01010050457262e-06</v>
+        <v>0.0004342845641076565</v>
       </c>
       <c r="AM4" t="n">
-        <v>8.83023517417314e-07</v>
+        <v>0.001322237774729729</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.263512785953935e-06</v>
+        <v>0.001770090777426958</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.927298154048913e-07</v>
+        <v>0.0003415214014239609</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.194727701658849e-06</v>
+        <v>0.002669875975698233</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.186539056012407e-07</v>
+        <v>0.001971491146832705</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.005069958016975e-07</v>
+        <v>0.0008015033090487123</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.609898163223988e-06</v>
+        <v>0.002269296208396554</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.842498244921444e-06</v>
+        <v>0.0008183540194295347</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.953757292649243e-06</v>
+        <v>0.008679185062646866</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.033696321428579e-06</v>
+        <v>0.002836324041709304</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.087686198137817e-06</v>
+        <v>0.0009455351391807199</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.298287414414517e-07</v>
+        <v>0.001448356546461582</v>
       </c>
       <c r="AY4" t="n">
-        <v>4.775258162226237e-07</v>
+        <v>0.004438035655766726</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.279424850508804e-06</v>
+        <v>0.002465140074491501</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.125301307387417e-06</v>
+        <v>0.001808988396078348</v>
       </c>
       <c r="BB4" t="n">
-        <v>4.520186962508888e-07</v>
+        <v>0.004022084176540375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.18237289825629e-06</v>
+        <v>0.003907386679202318</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.384442157359445e-06</v>
+        <v>0.002786280121654272</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.854303708474617e-09</v>
+        <v>0.003389589721336961</v>
       </c>
       <c r="BF4" t="n">
-        <v>5.072910880699055e-06</v>
+        <v>0.001798024168238044</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.894978822747362e-06</v>
+        <v>0.00404524989426136</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.968896867765579e-06</v>
+        <v>0.005292740184813738</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.299872337767738e-06</v>
+        <v>0.002650690730661154</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.218222450916073e-06</v>
+        <v>0.003558199619874358</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.218093186456827e-06</v>
+        <v>0.002656742231920362</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.051076866242511e-07</v>
+        <v>0.0004875316517427564</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.71120916295331e-06</v>
+        <v>0.002605188870802522</v>
       </c>
       <c r="BN4" t="n">
-        <v>2.917984716077626e-07</v>
+        <v>0.001041807816363871</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.104879970625916e-06</v>
+        <v>0.002255053725093603</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.493365516580525e-06</v>
+        <v>0.0005145570612512529</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.529242126707686e-06</v>
+        <v>0.0009965270292013884</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.465028276470548e-07</v>
+        <v>0.001576459151692688</v>
       </c>
       <c r="BS4" t="n">
-        <v>7.83752511779312e-08</v>
+        <v>0.0005955043598078191</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.988684286719945e-07</v>
+        <v>0.001178469974547625</v>
       </c>
       <c r="BU4" t="n">
-        <v>3.731802735273959e-06</v>
+        <v>0.0005608623614534736</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.04481716536975e-06</v>
+        <v>0.004712577909231186</v>
       </c>
       <c r="BW4" t="n">
-        <v>7.813661113686976e-07</v>
+        <v>0.002693039132282138</v>
       </c>
       <c r="BX4" t="n">
-        <v>3.972370450355811e-06</v>
+        <v>0.0002020549727603793</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.447801762173185e-06</v>
+        <v>0.001694726408459246</v>
       </c>
       <c r="BZ4" t="n">
-        <v>9.873573389995727e-07</v>
+        <v>6.942101754248142e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.068274741555797e-06</v>
+        <v>0.001385687035508454</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.451079242542619e-06</v>
+        <v>0.001702740439213812</v>
       </c>
       <c r="CC4" t="n">
-        <v>8.703739240445429e-07</v>
+        <v>0.001759215840138495</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.145838496086071e-06</v>
+        <v>7.053367153275758e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.428584139124723e-06</v>
+        <v>0.002416972769424319</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.384061730253961e-07</v>
+        <v>0.001648832228966057</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.690323415459716e-06</v>
+        <v>0.0007993156905286014</v>
       </c>
       <c r="CH4" t="n">
-        <v>9.851082722889259e-07</v>
+        <v>0.001333414227701724</v>
       </c>
       <c r="CI4" t="n">
-        <v>4.208100108371582e-07</v>
+        <v>0.00176863232627511</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.486040162035351e-07</v>
+        <v>0.0007648160681128502</v>
       </c>
       <c r="CK4" t="n">
-        <v>9.0080412462612e-08</v>
+        <v>0.0002003090630751103</v>
       </c>
       <c r="CL4" t="n">
-        <v>6.267581511565368e-07</v>
+        <v>0.00154800177551806</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.596033030182298e-07</v>
+        <v>0.0009664192912168801</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.171938265542849e-06</v>
+        <v>0.0006848184857517481</v>
       </c>
       <c r="CO4" t="n">
-        <v>9.852647053776309e-08</v>
+        <v>0.002359333215281367</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.778281216502364e-06</v>
+        <v>0.002865436021238565</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.279711679875618e-06</v>
+        <v>0.001906947582028806</v>
       </c>
       <c r="CR4" t="n">
-        <v>3.29577437696571e-06</v>
+        <v>0.001048393547534943</v>
       </c>
       <c r="CS4" t="n">
-        <v>7.834680104679137e-07</v>
+        <v>0.0006947344518266618</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.910735591081902e-06</v>
+        <v>0.0005897697410546243</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.211948040870993e-08</v>
+        <v>0.002685428597033024</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.165998810392921e-06</v>
+        <v>0.0002343874366488308</v>
       </c>
       <c r="CW4" t="n">
-        <v>2.477159569025389e-06</v>
+        <v>0.002330765593796968</v>
       </c>
       <c r="CX4" t="n">
-        <v>2.027344407906639e-07</v>
+        <v>0.001639289199374616</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.685425900177506e-06</v>
+        <v>0.001465509878471494</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.102675355468818e-06</v>
+        <v>0.001590273343026638</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.112649610808148e-08</v>
+        <v>0.0012564203934744</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.306703723003011e-07</v>
+        <v>0.0001783960324246436</v>
       </c>
       <c r="DC4" t="n">
-        <v>3.388311711205461e-07</v>
+        <v>0.0005855036433786154</v>
       </c>
       <c r="DD4" t="n">
-        <v>6.117363682278665e-07</v>
+        <v>0.001527081592939794</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.482326408426161e-06</v>
+        <v>0.000196037522982806</v>
       </c>
       <c r="DF4" t="n">
-        <v>4.366688699519727e-06</v>
+        <v>0.002585555892437696</v>
       </c>
       <c r="DG4" t="n">
-        <v>3.518881612762925e-07</v>
+        <v>0.0004430784611031413</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.147805505752331e-06</v>
+        <v>0.00289959111250937</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.502029022049101e-06</v>
+        <v>0.001512855058535933</v>
       </c>
       <c r="DJ4" t="n">
-        <v>5.897070991522924e-07</v>
+        <v>0.006445099133998156</v>
       </c>
       <c r="DK4" t="n">
-        <v>2.597316779429093e-06</v>
+        <v>0.004394693300127983</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.471441575835343e-06</v>
+        <v>0.003490587696433067</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.14780402782344e-06</v>
+        <v>0.005090027581900358</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.011705421660736e-06</v>
+        <v>0.001706647220999002</v>
       </c>
       <c r="DO4" t="n">
-        <v>7.384745117633429e-07</v>
+        <v>0.001081719994544983</v>
       </c>
       <c r="DP4" t="n">
-        <v>8.620213520771358e-07</v>
+        <v>0.002071737311780453</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2.143854089808883e-07</v>
+        <v>3.564279177226126e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.362739112664713e-06</v>
+        <v>0.0001587408478371799</v>
       </c>
       <c r="DS4" t="n">
-        <v>6.781092452001758e-07</v>
+        <v>0.0003208922280464321</v>
       </c>
       <c r="DT4" t="n">
-        <v>6.648851922363974e-07</v>
+        <v>0.00224042939953506</v>
       </c>
       <c r="DU4" t="n">
-        <v>6.004755732647027e-07</v>
+        <v>0.001702750683762133</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.617690486455103e-06</v>
+        <v>0.001513266935944557</v>
       </c>
       <c r="DW4" t="n">
-        <v>5.220271646066976e-07</v>
+        <v>0.0006519948365166783</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.713038611545926e-06</v>
+        <v>0.001515445648692548</v>
       </c>
       <c r="DY4" t="n">
-        <v>8.234906090365257e-07</v>
+        <v>0.0007244356675073504</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.84337091013731e-06</v>
+        <v>0.001425825292244554</v>
       </c>
       <c r="EA4" t="n">
-        <v>8.482001021548058e-07</v>
+        <v>0.001546528190374374</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.972436957155878e-07</v>
+        <v>0.0004369832167867571</v>
       </c>
       <c r="EC4" t="n">
-        <v>3.265240025029925e-07</v>
+        <v>0.0002418611838947982</v>
       </c>
       <c r="ED4" t="n">
-        <v>8.218167124596221e-08</v>
+        <v>0.0004690985369961709</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.774495558493072e-06</v>
+        <v>0.00278060813434422</v>
       </c>
       <c r="EF4" t="n">
-        <v>2.090945827148971e-06</v>
+        <v>0.0004479017807170749</v>
       </c>
       <c r="EG4" t="n">
-        <v>3.135004590149038e-06</v>
+        <v>0.001688111573457718</v>
       </c>
       <c r="EH4" t="n">
-        <v>1.986017537092266e-07</v>
+        <v>0.00073445332236588</v>
       </c>
       <c r="EI4" t="n">
-        <v>2.329081553398282e-06</v>
+        <v>0.0008426492568105459</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.373696704831673e-06</v>
+        <v>0.0009546937653794885</v>
       </c>
       <c r="EK4" t="n">
-        <v>3.125056764474721e-07</v>
+        <v>0.0018189208349213</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.371594748889038e-08</v>
+        <v>0.00200209254398942</v>
       </c>
       <c r="EM4" t="n">
-        <v>6.015345661580795e-07</v>
+        <v>0.0001457327016396448</v>
       </c>
       <c r="EN4" t="n">
-        <v>6.876017550894176e-07</v>
+        <v>0.0003330662148073316</v>
       </c>
       <c r="EO4" t="n">
-        <v>5.736158641411748e-07</v>
+        <v>0.001654434017837048</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.493170998401183e-06</v>
+        <v>0.0006148699321784079</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.046514626068529e-07</v>
+        <v>0.001305344863794744</v>
       </c>
       <c r="ER4" t="n">
-        <v>2.245799919364799e-07</v>
+        <v>0.001745832618325949</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.471335735914181e-06</v>
+        <v>0.003097245004028082</v>
       </c>
       <c r="ET4" t="n">
-        <v>9.56430085352622e-07</v>
+        <v>0.003446119371801615</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.752514720010367e-07</v>
+        <v>0.001944164512678981</v>
       </c>
       <c r="EV4" t="n">
-        <v>2.250862962682731e-07</v>
+        <v>0.001806985354050994</v>
       </c>
       <c r="EW4" t="n">
-        <v>5.783261372016568e-07</v>
+        <v>0.002185086952522397</v>
       </c>
       <c r="EX4" t="n">
-        <v>7.749858923489228e-07</v>
+        <v>0.0002150572399841622</v>
       </c>
       <c r="EY4" t="n">
-        <v>2.232799715784495e-06</v>
+        <v>0.002297179773449898</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2.306089328385497e-07</v>
+        <v>0.0009321286925114691</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.39309668156784e-06</v>
+        <v>0.0005348084960132837</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.389274757457315e-06</v>
+        <v>0.001717375707812607</v>
       </c>
       <c r="FC4" t="n">
-        <v>4.461062417249195e-07</v>
+        <v>0.0009698347421362996</v>
       </c>
       <c r="FD4" t="n">
-        <v>7.325705553284934e-08</v>
+        <v>0.001304890727624297</v>
       </c>
       <c r="FE4" t="n">
-        <v>9.635900255489105e-08</v>
+        <v>0.0003653147141449153</v>
       </c>
       <c r="FF4" t="n">
-        <v>9.528522326718303e-08</v>
+        <v>0.002270239638164639</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.463534658796561e-06</v>
+        <v>0.0009043363388627768</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.453357469927141e-07</v>
+        <v>0.000845382222905755</v>
       </c>
       <c r="FI4" t="n">
-        <v>1.598138396730064e-06</v>
+        <v>0.0004504857352003455</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.639653191887191e-06</v>
+        <v>0.003215456381440163</v>
       </c>
       <c r="FK4" t="n">
-        <v>2.128191681549652e-06</v>
+        <v>0.001171910320408642</v>
       </c>
       <c r="FL4" t="n">
-        <v>9.462522712055943e-07</v>
+        <v>0.001617087633349001</v>
       </c>
       <c r="FM4" t="n">
-        <v>8.118170171655947e-07</v>
+        <v>0.0004954421892762184</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.620469447516371e-07</v>
+        <v>0.001438363455235958</v>
       </c>
       <c r="FO4" t="n">
-        <v>2.541504272812745e-06</v>
+        <v>0.001507833134382963</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.674873999490956e-07</v>
+        <v>0.001848058309406042</v>
       </c>
       <c r="FQ4" t="n">
-        <v>5.274412160360953e-07</v>
+        <v>0.001379769062623382</v>
       </c>
       <c r="FR4" t="n">
-        <v>8.579764880778384e-07</v>
+        <v>0.0003949049569200724</v>
       </c>
       <c r="FS4" t="n">
-        <v>1.487550207457389e-06</v>
+        <v>0.001382538583129644</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.692816340437275e-07</v>
+        <v>0.0009037046693265438</v>
       </c>
       <c r="FU4" t="n">
-        <v>2.450172587487032e-06</v>
+        <v>0.004721590783447027</v>
       </c>
       <c r="FV4" t="n">
-        <v>2.90204013708717e-07</v>
+        <v>8.045579306781292e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>5.026477651881578e-07</v>
+        <v>0.001835215138271451</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.904148120956961e-06</v>
+        <v>0.001274217502214015</v>
       </c>
       <c r="FY4" t="n">
-        <v>9.61918317443633e-07</v>
+        <v>0.002916761208325624</v>
       </c>
       <c r="FZ4" t="n">
-        <v>4.896036784884927e-07</v>
+        <v>0.001304426928982139</v>
       </c>
       <c r="GA4" t="n">
-        <v>9.032354455484892e-07</v>
+        <v>0.0006324997521005571</v>
       </c>
       <c r="GB4" t="n">
-        <v>2.036954356299248e-06</v>
+        <v>0.0001954496547114104</v>
       </c>
       <c r="GC4" t="n">
-        <v>3.445418769842945e-06</v>
+        <v>0.001324092736467719</v>
       </c>
       <c r="GD4" t="n">
-        <v>6.371697054419201e-07</v>
+        <v>0.0009581361664459109</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.017728436636389e-06</v>
+        <v>0.002121454104781151</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.368173684568319e-06</v>
+        <v>0.0001212028437294066</v>
       </c>
       <c r="GG4" t="n">
-        <v>8.103642130663502e-07</v>
+        <v>0.0008626963826827705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7.905413923481319e-08</v>
+        <v>7.00732198311016e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>5.68040150028537e-07</v>
+        <v>0.04229138419032097</v>
       </c>
       <c r="C5" t="n">
-        <v>6.299242159002461e-07</v>
+        <v>0.004951077979058027</v>
       </c>
       <c r="D5" t="n">
-        <v>2.530732217564946e-06</v>
+        <v>0.02589099854230881</v>
       </c>
       <c r="E5" t="n">
-        <v>5.581745199378929e-07</v>
+        <v>0.007084231823682785</v>
       </c>
       <c r="F5" t="n">
-        <v>1.955260842123607e-09</v>
+        <v>0.004752372391521931</v>
       </c>
       <c r="G5" t="n">
-        <v>6.151068987492181e-08</v>
+        <v>5.539972335100174e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.176672071778739e-06</v>
+        <v>0.004700797144323587</v>
       </c>
       <c r="I5" t="n">
-        <v>4.850496111430402e-07</v>
+        <v>0.002813288709148765</v>
       </c>
       <c r="J5" t="n">
-        <v>5.438409402813704e-07</v>
+        <v>0.003034580266103148</v>
       </c>
       <c r="K5" t="n">
-        <v>9.020540687743051e-07</v>
+        <v>0.03245165571570396</v>
       </c>
       <c r="L5" t="n">
-        <v>2.260111102714291e-07</v>
+        <v>0.0008506900048814714</v>
       </c>
       <c r="M5" t="n">
-        <v>2.070132495646249e-06</v>
+        <v>0.02140940725803375</v>
       </c>
       <c r="N5" t="n">
-        <v>6.305794642003093e-08</v>
+        <v>0.009338737465441227</v>
       </c>
       <c r="O5" t="n">
-        <v>1.005053150038293e-06</v>
+        <v>0.004586404655128717</v>
       </c>
       <c r="P5" t="n">
-        <v>1.188587361866666e-08</v>
+        <v>0.001187845831736922</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68100575592689e-06</v>
+        <v>0.002283149166032672</v>
       </c>
       <c r="R5" t="n">
-        <v>5.433022352008265e-07</v>
+        <v>0.004372573923319578</v>
       </c>
       <c r="S5" t="n">
-        <v>3.170398770180327e-07</v>
+        <v>0.001905464101582766</v>
       </c>
       <c r="T5" t="n">
-        <v>5.402118858910399e-07</v>
+        <v>0.006226643454283476</v>
       </c>
       <c r="U5" t="n">
-        <v>4.519951346537709e-07</v>
+        <v>0.002258511260151863</v>
       </c>
       <c r="V5" t="n">
-        <v>9.676531220748075e-08</v>
+        <v>0.003183771157637239</v>
       </c>
       <c r="W5" t="n">
-        <v>1.460809016862186e-06</v>
+        <v>0.0005845075938850641</v>
       </c>
       <c r="X5" t="n">
-        <v>1.171716945691514e-07</v>
+        <v>0.003616100177168846</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.981515264849804e-08</v>
+        <v>0.004551112651824951</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.912209305985016e-07</v>
+        <v>0.0006442719022743404</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.417418063620062e-08</v>
+        <v>0.001613283646292984</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.372662030822539e-07</v>
+        <v>0.003989416174590588</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.53474317698965e-07</v>
+        <v>0.00838091503828764</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.676008475395065e-07</v>
+        <v>0.001129042939282954</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.468549039098434e-07</v>
+        <v>0.002954938681796193</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.007525226754296e-09</v>
+        <v>0.003091110615059733</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.384617551840165e-08</v>
+        <v>0.0007092694286257029</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.111464851850542e-07</v>
+        <v>0.001081770984455943</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.024079262559098e-07</v>
+        <v>0.001235745381563902</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.679799019413622e-07</v>
+        <v>0.002923514926806092</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.979351615475025e-07</v>
+        <v>0.001118935644626617</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.770238438642991e-07</v>
+        <v>0.003426744835451245</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.020990887620428e-08</v>
+        <v>0.001029944396577775</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.922719145066367e-07</v>
+        <v>0.0004095684853382409</v>
       </c>
       <c r="AO5" t="n">
-        <v>3.908257326656894e-07</v>
+        <v>0.001883839722722769</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.132371434981906e-07</v>
+        <v>0.006104083731770515</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5.685782156206187e-08</v>
+        <v>0.001603598473593593</v>
       </c>
       <c r="AR5" t="n">
-        <v>6.859903578515514e-08</v>
+        <v>0.001343470881693065</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.25881915791615e-08</v>
+        <v>0.001776958932168782</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.270603971510354e-07</v>
+        <v>0.003464865032583475</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.370325197873171e-07</v>
+        <v>0.02634911425411701</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.539575009701366e-07</v>
+        <v>0.0005718439351767302</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.106966237784945e-06</v>
+        <v>0.002858603140339255</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.666169507392624e-09</v>
+        <v>0.0039773671887815</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.420700297989242e-07</v>
+        <v>0.003522985382005572</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.98204446633099e-07</v>
+        <v>0.0006964961066842079</v>
       </c>
       <c r="BA5" t="n">
-        <v>9.332783861282223e-07</v>
+        <v>0.002719679847359657</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.270118730190006e-07</v>
+        <v>0.0002774028689600527</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.723884904298757e-07</v>
+        <v>0.001708981348201632</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.469061766736559e-07</v>
+        <v>0.01098289806395769</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.094744561669359e-08</v>
+        <v>0.007298813667148352</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.09073369003454e-06</v>
+        <v>0.004345281049609184</v>
       </c>
       <c r="BG5" t="n">
-        <v>8.89718734242706e-08</v>
+        <v>0.01355100609362125</v>
       </c>
       <c r="BH5" t="n">
-        <v>4.29508190791239e-07</v>
+        <v>0.005501548759639263</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.597345769572712e-07</v>
+        <v>0.007506809197366238</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.864552470782655e-07</v>
+        <v>0.006189679726958275</v>
       </c>
       <c r="BK5" t="n">
-        <v>7.763564013885116e-08</v>
+        <v>0.00133793312124908</v>
       </c>
       <c r="BL5" t="n">
-        <v>3.50945612126452e-07</v>
+        <v>0.004498227965086699</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.315927136147366e-07</v>
+        <v>0.006719037424772978</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.231028730648177e-07</v>
+        <v>0.004261197056621313</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.103077806874353e-08</v>
+        <v>0.001726234564557672</v>
       </c>
       <c r="BP5" t="n">
-        <v>6.355395498758298e-08</v>
+        <v>0.005928704980760813</v>
       </c>
       <c r="BQ5" t="n">
-        <v>4.686621934979485e-08</v>
+        <v>0.002234995597973466</v>
       </c>
       <c r="BR5" t="n">
-        <v>6.413546316252905e-08</v>
+        <v>0.00580222811549902</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.010684028164178e-07</v>
+        <v>0.002975167473778129</v>
       </c>
       <c r="BT5" t="n">
-        <v>5.478876019537893e-08</v>
+        <v>0.002743978518992662</v>
       </c>
       <c r="BU5" t="n">
-        <v>3.789656659591856e-07</v>
+        <v>0.002829950302839279</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.385028554068413e-07</v>
+        <v>0.01375914178788662</v>
       </c>
       <c r="BW5" t="n">
-        <v>2.151241460524034e-07</v>
+        <v>0.004961653612554073</v>
       </c>
       <c r="BX5" t="n">
-        <v>8.875312005329761e-07</v>
+        <v>0.003663191571831703</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.810389989032046e-07</v>
+        <v>0.002343372208997607</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.14679707508003e-07</v>
+        <v>0.004481122363358736</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.728448211224531e-07</v>
+        <v>0.0005217624711804092</v>
       </c>
       <c r="CB5" t="n">
-        <v>4.940023359267798e-07</v>
+        <v>0.0002456707588862628</v>
       </c>
       <c r="CC5" t="n">
-        <v>3.369207490777626e-07</v>
+        <v>0.003078543115407228</v>
       </c>
       <c r="CD5" t="n">
-        <v>5.204557282922906e-07</v>
+        <v>0.0004935195902362466</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.035318035746968e-07</v>
+        <v>0.007408967241644859</v>
       </c>
       <c r="CF5" t="n">
-        <v>1.526682211760999e-07</v>
+        <v>0.001572791836224496</v>
       </c>
       <c r="CG5" t="n">
-        <v>5.237760660747881e-07</v>
+        <v>0.003765440313145518</v>
       </c>
       <c r="CH5" t="n">
-        <v>5.891096321875011e-08</v>
+        <v>0.001314140856266022</v>
       </c>
       <c r="CI5" t="n">
-        <v>7.424044667914131e-08</v>
+        <v>0.0003218268102500588</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.256938872984392e-07</v>
+        <v>0.003226854838430882</v>
       </c>
       <c r="CK5" t="n">
-        <v>2.37107485645538e-07</v>
+        <v>0.0008863408584147692</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.227755852539758e-08</v>
+        <v>0.0007661887793801725</v>
       </c>
       <c r="CM5" t="n">
-        <v>4.047434742915357e-07</v>
+        <v>0.006873349659144878</v>
       </c>
       <c r="CN5" t="n">
-        <v>5.642243081638298e-07</v>
+        <v>0.004154936876147985</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.616739382370724e-07</v>
+        <v>0.001095307758077979</v>
       </c>
       <c r="CP5" t="n">
-        <v>7.403999120469962e-07</v>
+        <v>0.00981712993234396</v>
       </c>
       <c r="CQ5" t="n">
-        <v>9.746821660883143e-07</v>
+        <v>0.003333461470901966</v>
       </c>
       <c r="CR5" t="n">
-        <v>8.162713811543654e-07</v>
+        <v>0.004182304721325636</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.223162655605847e-07</v>
+        <v>0.001247492618858814</v>
       </c>
       <c r="CT5" t="n">
-        <v>2.667539433787169e-07</v>
+        <v>0.008399121463298798</v>
       </c>
       <c r="CU5" t="n">
-        <v>2.880548777284275e-07</v>
+        <v>8.494150824844837e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>5.47537354123051e-07</v>
+        <v>0.0007691431092098355</v>
       </c>
       <c r="CW5" t="n">
-        <v>2.013437381265248e-07</v>
+        <v>0.00618636654689908</v>
       </c>
       <c r="CX5" t="n">
-        <v>1.821777004806791e-07</v>
+        <v>0.002913352334871888</v>
       </c>
       <c r="CY5" t="n">
-        <v>5.153108304511989e-07</v>
+        <v>0.004969889298081398</v>
       </c>
       <c r="CZ5" t="n">
-        <v>9.967251912712527e-08</v>
+        <v>0.0008608863572590053</v>
       </c>
       <c r="DA5" t="n">
-        <v>8.728510181299498e-08</v>
+        <v>0.0004138255026191473</v>
       </c>
       <c r="DB5" t="n">
-        <v>4.511447215804765e-08</v>
+        <v>0.00353233702480793</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.195416328731881e-07</v>
+        <v>0.0009616962634027004</v>
       </c>
       <c r="DD5" t="n">
-        <v>7.620330677582388e-08</v>
+        <v>0.000319905491778627</v>
       </c>
       <c r="DE5" t="n">
-        <v>6.048339855624363e-07</v>
+        <v>0.002602056134492159</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.129878910433035e-07</v>
+        <v>0.009895311668515205</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.012701034142083e-07</v>
+        <v>0.002754286397248507</v>
       </c>
       <c r="DH5" t="n">
-        <v>2.612447644878557e-07</v>
+        <v>0.01406073197722435</v>
       </c>
       <c r="DI5" t="n">
-        <v>4.999196221433522e-07</v>
+        <v>0.0001942979142768309</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.228377044526496e-08</v>
+        <v>0.004411440342664719</v>
       </c>
       <c r="DK5" t="n">
-        <v>2.436862018839747e-07</v>
+        <v>0.002378734294325113</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.663252788830505e-07</v>
+        <v>0.002417216775938869</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.011221755220504e-07</v>
+        <v>0.00122767046559602</v>
       </c>
       <c r="DN5" t="n">
-        <v>2.750502119397424e-07</v>
+        <v>0.001727524446323514</v>
       </c>
       <c r="DO5" t="n">
-        <v>2.301420352068817e-07</v>
+        <v>0.00499374233186245</v>
       </c>
       <c r="DP5" t="n">
-        <v>6.941394303794368e-08</v>
+        <v>0.001853151363320649</v>
       </c>
       <c r="DQ5" t="n">
-        <v>7.485119368766391e-08</v>
+        <v>2.463854616507888e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>4.463761911210895e-07</v>
+        <v>0.004334404598921537</v>
       </c>
       <c r="DS5" t="n">
-        <v>2.992997281126009e-07</v>
+        <v>0.0007342455210164189</v>
       </c>
       <c r="DT5" t="n">
-        <v>1.783735115168383e-07</v>
+        <v>0.001379919936880469</v>
       </c>
       <c r="DU5" t="n">
-        <v>3.121672875749937e-08</v>
+        <v>0.0001386562071274966</v>
       </c>
       <c r="DV5" t="n">
-        <v>5.514238665682569e-08</v>
+        <v>0.00247877393849194</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.29810786120288e-07</v>
+        <v>0.0006711449241265655</v>
       </c>
       <c r="DX5" t="n">
-        <v>4.404812727898388e-07</v>
+        <v>0.003057789988815784</v>
       </c>
       <c r="DY5" t="n">
-        <v>7.087967190955169e-08</v>
+        <v>0.0008178320131264627</v>
       </c>
       <c r="DZ5" t="n">
-        <v>4.939194013786619e-07</v>
+        <v>0.0003871640656143427</v>
       </c>
       <c r="EA5" t="n">
-        <v>1.121866688436057e-07</v>
+        <v>0.006726642139256001</v>
       </c>
       <c r="EB5" t="n">
-        <v>4.430464173310611e-07</v>
+        <v>0.006845384836196899</v>
       </c>
       <c r="EC5" t="n">
-        <v>7.571637894443484e-08</v>
+        <v>0.002097181510180235</v>
       </c>
       <c r="ED5" t="n">
-        <v>5.124876878426221e-08</v>
+        <v>0.0001554895425215364</v>
       </c>
       <c r="EE5" t="n">
-        <v>9.033739445385436e-08</v>
+        <v>0.001375820836983621</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.398110379748687e-07</v>
+        <v>0.0001451541902497411</v>
       </c>
       <c r="EG5" t="n">
-        <v>3.697546446801425e-08</v>
+        <v>0.004314522724598646</v>
       </c>
       <c r="EH5" t="n">
-        <v>1.700535534610026e-07</v>
+        <v>0.001828644424676895</v>
       </c>
       <c r="EI5" t="n">
-        <v>6.302029760263395e-07</v>
+        <v>0.003010672749951482</v>
       </c>
       <c r="EJ5" t="n">
-        <v>4.907427637590445e-07</v>
+        <v>0.006080894265323877</v>
       </c>
       <c r="EK5" t="n">
-        <v>4.048759194574814e-07</v>
+        <v>0.000253809877904132</v>
       </c>
       <c r="EL5" t="n">
-        <v>3.809805448895531e-08</v>
+        <v>0.004325181245803833</v>
       </c>
       <c r="EM5" t="n">
-        <v>3.018158167833462e-07</v>
+        <v>0.001700171735137701</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.393991908571479e-07</v>
+        <v>0.0007801712490618229</v>
       </c>
       <c r="EO5" t="n">
-        <v>5.484823191181931e-07</v>
+        <v>0.001312722102738917</v>
       </c>
       <c r="EP5" t="n">
-        <v>4.324442670622375e-08</v>
+        <v>0.004991412628442049</v>
       </c>
       <c r="EQ5" t="n">
-        <v>5.326832592800201e-07</v>
+        <v>0.002556135645136237</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.586042941426058e-07</v>
+        <v>0.003395138075575233</v>
       </c>
       <c r="ES5" t="n">
-        <v>3.761755920095311e-07</v>
+        <v>0.001019457471556962</v>
       </c>
       <c r="ET5" t="n">
-        <v>2.889474330913799e-07</v>
+        <v>0.001576548092998564</v>
       </c>
       <c r="EU5" t="n">
-        <v>1.177631503423981e-08</v>
+        <v>0.003658232744783163</v>
       </c>
       <c r="EV5" t="n">
-        <v>3.319846371141466e-07</v>
+        <v>0.0004976975033059716</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.970796148498266e-07</v>
+        <v>0.001905524171888828</v>
       </c>
       <c r="EX5" t="n">
-        <v>4.391646939438942e-07</v>
+        <v>0.0005188743234612048</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.787669532404834e-07</v>
+        <v>0.006406153086572886</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1.890305583174268e-07</v>
+        <v>0.001309566432610154</v>
       </c>
       <c r="FA5" t="n">
-        <v>4.593462108459789e-07</v>
+        <v>0.004738049581646919</v>
       </c>
       <c r="FB5" t="n">
-        <v>9.495946784454645e-08</v>
+        <v>0.0001310474908677861</v>
       </c>
       <c r="FC5" t="n">
-        <v>1.593244149944439e-07</v>
+        <v>0.001378055196255445</v>
       </c>
       <c r="FD5" t="n">
-        <v>3.306923801460471e-08</v>
+        <v>0.00360836461186409</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.892682348625385e-07</v>
+        <v>0.0008997938130050898</v>
       </c>
       <c r="FF5" t="n">
-        <v>4.139204534681085e-09</v>
+        <v>0.0009398056427016854</v>
       </c>
       <c r="FG5" t="n">
-        <v>2.271810473075675e-07</v>
+        <v>0.00070160161703825</v>
       </c>
       <c r="FH5" t="n">
-        <v>8.702230047674675e-08</v>
+        <v>0.001285393256694078</v>
       </c>
       <c r="FI5" t="n">
-        <v>6.736495095083228e-08</v>
+        <v>0.0001423506037099287</v>
       </c>
       <c r="FJ5" t="n">
-        <v>4.598511793574289e-07</v>
+        <v>0.006729489658027887</v>
       </c>
       <c r="FK5" t="n">
-        <v>2.108898513597524e-07</v>
+        <v>0.004568435251712799</v>
       </c>
       <c r="FL5" t="n">
-        <v>4.74392329863349e-08</v>
+        <v>0.007637381553649902</v>
       </c>
       <c r="FM5" t="n">
-        <v>6.325951318331136e-08</v>
+        <v>0.000653475581202656</v>
       </c>
       <c r="FN5" t="n">
-        <v>4.066384633460984e-07</v>
+        <v>0.001078799599781632</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.011577666076846e-08</v>
+        <v>0.002918900456279516</v>
       </c>
       <c r="FP5" t="n">
-        <v>3.830795094472705e-07</v>
+        <v>0.004231351893395185</v>
       </c>
       <c r="FQ5" t="n">
-        <v>2.374036967012216e-07</v>
+        <v>0.002763977507129312</v>
       </c>
       <c r="FR5" t="n">
-        <v>6.525605726892536e-07</v>
+        <v>0.0003859593707602471</v>
       </c>
       <c r="FS5" t="n">
-        <v>6.826135745541251e-08</v>
+        <v>0.002674337942153215</v>
       </c>
       <c r="FT5" t="n">
-        <v>3.53015082055208e-07</v>
+        <v>0.0009543972555547953</v>
       </c>
       <c r="FU5" t="n">
-        <v>1.418512880491107e-07</v>
+        <v>0.0007079542265273631</v>
       </c>
       <c r="FV5" t="n">
-        <v>2.637071361277776e-07</v>
+        <v>0.0007237968966364861</v>
       </c>
       <c r="FW5" t="n">
-        <v>5.370810072236054e-07</v>
+        <v>3.455957630649209e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>3.329247419969761e-07</v>
+        <v>0.0008515468798577785</v>
       </c>
       <c r="FY5" t="n">
-        <v>6.159426675367285e-07</v>
+        <v>0.004400497768074274</v>
       </c>
       <c r="FZ5" t="n">
-        <v>3.40737329906915e-07</v>
+        <v>0.001717893057502806</v>
       </c>
       <c r="GA5" t="n">
-        <v>2.046286766699268e-07</v>
+        <v>0.001405263785272837</v>
       </c>
       <c r="GB5" t="n">
-        <v>4.128415298509935e-07</v>
+        <v>0.001766402972862124</v>
       </c>
       <c r="GC5" t="n">
-        <v>3.174113771819975e-08</v>
+        <v>0.003347454126924276</v>
       </c>
       <c r="GD5" t="n">
-        <v>6.505231340270257e-07</v>
+        <v>0.006942177657037973</v>
       </c>
       <c r="GE5" t="n">
-        <v>2.144207087440009e-07</v>
+        <v>0.009053599089384079</v>
       </c>
       <c r="GF5" t="n">
-        <v>4.235426231957717e-08</v>
+        <v>7.848540553823113e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>4.421558585931962e-08</v>
+        <v>0.00249345344491303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.597185483511511e-13</v>
+        <v>0.000286669353954494</v>
       </c>
       <c r="B6" t="n">
-        <v>5.603390147712606e-12</v>
+        <v>0.006839169654995203</v>
       </c>
       <c r="C6" t="n">
-        <v>2.050380264878582e-12</v>
+        <v>6.731227767886594e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>7.618626216010504e-12</v>
+        <v>0.002719087526202202</v>
       </c>
       <c r="E6" t="n">
-        <v>2.767274690645971e-12</v>
+        <v>0.001993957674130797</v>
       </c>
       <c r="F6" t="n">
-        <v>7.827821724148976e-12</v>
+        <v>0.001737215556204319</v>
       </c>
       <c r="G6" t="n">
-        <v>7.135210391279179e-13</v>
+        <v>0.00150181190110743</v>
       </c>
       <c r="H6" t="n">
-        <v>2.567649651924464e-12</v>
+        <v>3.777394522330724e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>2.35682762368683e-12</v>
+        <v>0.0008140553254634142</v>
       </c>
       <c r="J6" t="n">
-        <v>4.851888205439914e-13</v>
+        <v>0.0005740980268456042</v>
       </c>
       <c r="K6" t="n">
-        <v>1.003823977066554e-12</v>
+        <v>0.006086550187319517</v>
       </c>
       <c r="L6" t="n">
-        <v>7.156443948726221e-13</v>
+        <v>0.0009006179752759635</v>
       </c>
       <c r="M6" t="n">
-        <v>6.695771541387341e-12</v>
+        <v>0.002391521353274584</v>
       </c>
       <c r="N6" t="n">
-        <v>4.165838247277565e-12</v>
+        <v>0.002016522921621799</v>
       </c>
       <c r="O6" t="n">
-        <v>7.168609239202595e-13</v>
+        <v>0.002014412777498364</v>
       </c>
       <c r="P6" t="n">
-        <v>7.07091199828036e-12</v>
+        <v>0.002711118664592505</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.780593359389238e-13</v>
+        <v>0.002546775154769421</v>
       </c>
       <c r="R6" t="n">
-        <v>1.008309755134995e-12</v>
+        <v>0.0008768655825406313</v>
       </c>
       <c r="S6" t="n">
-        <v>7.395527332892948e-13</v>
+        <v>0.0005871807225048542</v>
       </c>
       <c r="T6" t="n">
-        <v>4.626604004423496e-13</v>
+        <v>0.001194112934172153</v>
       </c>
       <c r="U6" t="n">
-        <v>4.999639482798635e-13</v>
+        <v>9.000793943414465e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>4.001007424675462e-13</v>
+        <v>0.0001717203413136303</v>
       </c>
       <c r="W6" t="n">
-        <v>7.563439458069254e-12</v>
+        <v>0.0002584385510999709</v>
       </c>
       <c r="X6" t="n">
-        <v>3.016153949861322e-13</v>
+        <v>0.0007004812359809875</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.215553253694715e-12</v>
+        <v>2.222086186520755e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.546308650042128e-12</v>
+        <v>0.0001752028474584222</v>
       </c>
       <c r="AA6" t="n">
-        <v>3.788352010564155e-13</v>
+        <v>0.0004755182017106563</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.802529680701274e-13</v>
+        <v>0.000190841150470078</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.438592405264173e-13</v>
+        <v>0.0004098176723346114</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.420843232784248e-13</v>
+        <v>0.0009293125476688147</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.191547728540687e-12</v>
+        <v>0.0008409690926782787</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.258221375675776e-12</v>
+        <v>8.026923023862764e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.440190410846199e-12</v>
+        <v>0.0002238748274976388</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.578973493094772e-12</v>
+        <v>0.001128162839449942</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.117308827923436e-12</v>
+        <v>0.0002677714801393449</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.90589121147023e-13</v>
+        <v>0.0003826452593784779</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.674534205215906e-12</v>
+        <v>0.001094897277653217</v>
       </c>
       <c r="AL6" t="n">
-        <v>6.502819116516179e-13</v>
+        <v>0.000890467781573534</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.947232522794828e-12</v>
+        <v>0.0003284730773884803</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.006440566614813e-12</v>
+        <v>0.0001356737338937819</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.175494786363813e-13</v>
+        <v>0.0006262788083404303</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.508921239166573e-12</v>
+        <v>0.0004559892113320529</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.448698145293693e-12</v>
+        <v>0.0008741247002035379</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.075801231952001e-12</v>
+        <v>0.0002111288049491122</v>
       </c>
       <c r="AS6" t="n">
-        <v>5.949520390235996e-13</v>
+        <v>0.0006456277915276587</v>
       </c>
       <c r="AT6" t="n">
-        <v>8.090122538897959e-13</v>
+        <v>0.001223118277266622</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.144255689147002e-12</v>
+        <v>0.005231649614870548</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.380696551354533e-13</v>
+        <v>6.158203177619725e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.496509051880707e-12</v>
+        <v>0.001147135742940009</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.655282232092107e-12</v>
+        <v>0.001698138075880706</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.31319542114239e-12</v>
+        <v>0.001515215961262584</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7.801023282211217e-13</v>
+        <v>0.00149839383084327</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.565554097973878e-12</v>
+        <v>0.001192234456539154</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.989211475660752e-13</v>
+        <v>8.265246287919581e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.066841268786757e-12</v>
+        <v>3.378395922482014e-05</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.492341398708687e-12</v>
+        <v>0.002109827939420938</v>
       </c>
       <c r="BE6" t="n">
-        <v>8.672636176917936e-13</v>
+        <v>0.0006804493023082614</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.957354401453507e-12</v>
+        <v>0.0004230914055369794</v>
       </c>
       <c r="BG6" t="n">
-        <v>6.384942054238341e-12</v>
+        <v>0.003117748769000173</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.355485815078162e-12</v>
+        <v>0.0008778269402682781</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.076771159215506e-12</v>
+        <v>1.382606569677591e-06</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.153066566521923e-12</v>
+        <v>0.002200823510065675</v>
       </c>
       <c r="BK6" t="n">
-        <v>4.613984433236851e-13</v>
+        <v>0.0001175416546175256</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.89081258930679e-12</v>
+        <v>0.001041229232214391</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.506432995180718e-12</v>
+        <v>0.001877368777059019</v>
       </c>
       <c r="BN6" t="n">
-        <v>2.38066120636371e-12</v>
+        <v>0.001078648958355188</v>
       </c>
       <c r="BO6" t="n">
-        <v>7.759499423207195e-13</v>
+        <v>0.0008491025073453784</v>
       </c>
       <c r="BP6" t="n">
-        <v>3.210668059541733e-12</v>
+        <v>0.001676104264333844</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.116632177347587e-12</v>
+        <v>0.0001755328557919711</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.968562678659636e-12</v>
+        <v>0.0009229864226654172</v>
       </c>
       <c r="BS6" t="n">
-        <v>6.093965609910157e-12</v>
+        <v>0.001051952829584479</v>
       </c>
       <c r="BT6" t="n">
-        <v>6.592713571243469e-13</v>
+        <v>0.0002793773601297289</v>
       </c>
       <c r="BU6" t="n">
-        <v>7.526439324209711e-13</v>
+        <v>0.0007832100964151323</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.273883234141626e-12</v>
+        <v>0.002702336059883237</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.474016004740508e-12</v>
+        <v>0.0006698510842397809</v>
       </c>
       <c r="BX6" t="n">
-        <v>7.02989836481871e-12</v>
+        <v>0.0003693665203172714</v>
       </c>
       <c r="BY6" t="n">
-        <v>6.296691033164104e-12</v>
+        <v>0.0004706028266809881</v>
       </c>
       <c r="BZ6" t="n">
-        <v>3.481035988975312e-12</v>
+        <v>0.0001359119778499007</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.546155347850742e-12</v>
+        <v>4.751150845550001e-05</v>
       </c>
       <c r="CB6" t="n">
-        <v>4.772171156505745e-13</v>
+        <v>0.0009183156071230769</v>
       </c>
       <c r="CC6" t="n">
-        <v>5.783184803438701e-13</v>
+        <v>0.0005889409803785384</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.746388186314341e-13</v>
+        <v>0.0001943006500368938</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.116337704041737e-13</v>
+        <v>0.001412032172083855</v>
       </c>
       <c r="CF6" t="n">
-        <v>5.474869147446826e-13</v>
+        <v>0.0004219307447783649</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.298233330733478e-12</v>
+        <v>0.0006935482961125672</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.439138088213388e-12</v>
+        <v>0.0003533695416990668</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.971733865589742e-13</v>
+        <v>2.317399776075035e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.610835380014275e-12</v>
+        <v>0.0008039402891881764</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.366716960958525e-12</v>
+        <v>0.0001537471835035831</v>
       </c>
       <c r="CL6" t="n">
-        <v>5.411910069391679e-13</v>
+        <v>0.0002933231298811734</v>
       </c>
       <c r="CM6" t="n">
-        <v>3.230181313401692e-12</v>
+        <v>0.002138792537152767</v>
       </c>
       <c r="CN6" t="n">
-        <v>2.568814085057713e-12</v>
+        <v>0.002253619721159339</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.032479653329977e-12</v>
+        <v>0.0001083594834199175</v>
       </c>
       <c r="CP6" t="n">
-        <v>8.979799542840894e-12</v>
+        <v>0.002355096628889441</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.958947760949403e-12</v>
+        <v>0.001683072070591152</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.423097734769122e-12</v>
+        <v>0.0003378067049197853</v>
       </c>
       <c r="CS6" t="n">
-        <v>4.832638195867434e-12</v>
+        <v>0.0009035770199261606</v>
       </c>
       <c r="CT6" t="n">
-        <v>5.087764844841081e-12</v>
+        <v>0.0005889972671866417</v>
       </c>
       <c r="CU6" t="n">
-        <v>4.657062496055131e-12</v>
+        <v>5.882183904759586e-05</v>
       </c>
       <c r="CV6" t="n">
-        <v>9.144885369793965e-13</v>
+        <v>0.0001572488399688154</v>
       </c>
       <c r="CW6" t="n">
-        <v>7.155331557297251e-13</v>
+        <v>0.001234165392816067</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.27621860562116e-12</v>
+        <v>0.0005064803990535438</v>
       </c>
       <c r="CY6" t="n">
-        <v>3.787690647238939e-13</v>
+        <v>0.0009926258353516459</v>
       </c>
       <c r="CZ6" t="n">
-        <v>4.39462919180067e-14</v>
+        <v>0.0003389438788872212</v>
       </c>
       <c r="DA6" t="n">
-        <v>9.046886503827345e-14</v>
+        <v>9.561484330333769e-05</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.720307273370136e-12</v>
+        <v>0.0008445798885077238</v>
       </c>
       <c r="DC6" t="n">
-        <v>8.317943772997993e-13</v>
+        <v>0.0003360984555911273</v>
       </c>
       <c r="DD6" t="n">
-        <v>5.434959123376548e-14</v>
+        <v>0.0003652811283245683</v>
       </c>
       <c r="DE6" t="n">
-        <v>3.371843169258648e-12</v>
+        <v>0.0006246764678508043</v>
       </c>
       <c r="DF6" t="n">
-        <v>8.492460749388864e-13</v>
+        <v>0.002025719732046127</v>
       </c>
       <c r="DG6" t="n">
-        <v>4.929280941756709e-12</v>
+        <v>0.000457354006357491</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.150008148605164e-12</v>
+        <v>0.00198881677351892</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.345175598514714e-12</v>
+        <v>0.001257346826605499</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.253647793214574e-12</v>
+        <v>0.0008173179812729359</v>
       </c>
       <c r="DK6" t="n">
-        <v>3.840744128985607e-12</v>
+        <v>0.002374385949224234</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.96006058206344e-12</v>
+        <v>0.0006708513828925788</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.528139594031419e-12</v>
+        <v>0.0009732679463922977</v>
       </c>
       <c r="DN6" t="n">
-        <v>4.756553224211091e-13</v>
+        <v>8.406702545471489e-05</v>
       </c>
       <c r="DO6" t="n">
-        <v>4.904162579505433e-12</v>
+        <v>0.0009543961496092379</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.503795560980127e-13</v>
+        <v>0.001305176876485348</v>
       </c>
       <c r="DQ6" t="n">
-        <v>4.784429146267866e-13</v>
+        <v>0.0001813435810618103</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.807402751768938e-12</v>
+        <v>0.0004428289539646357</v>
       </c>
       <c r="DS6" t="n">
-        <v>5.725729352451525e-12</v>
+        <v>0.0004009381809737533</v>
       </c>
       <c r="DT6" t="n">
-        <v>2.256259686462397e-13</v>
+        <v>0.001015446498058736</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.084009509759454e-12</v>
+        <v>3.648291749414057e-05</v>
       </c>
       <c r="DV6" t="n">
-        <v>2.264304737632783e-13</v>
+        <v>0.0002997554838657379</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.342379441111874e-12</v>
+        <v>0.0003478522994555533</v>
       </c>
       <c r="DX6" t="n">
-        <v>6.447259176187159e-13</v>
+        <v>0.00031619708170183</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.539677019033904e-12</v>
+        <v>0.0002159266441594809</v>
       </c>
       <c r="DZ6" t="n">
-        <v>7.162901998966631e-13</v>
+        <v>0.0001304226461797953</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.732040075599905e-12</v>
+        <v>0.0002882434928324074</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.968679559649633e-12</v>
+        <v>0.0003946819342672825</v>
       </c>
       <c r="EC6" t="n">
-        <v>6.914710774449939e-13</v>
+        <v>2.358047640882432e-05</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.538830586393647e-12</v>
+        <v>0.000999010750092566</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.449004002722354e-12</v>
+        <v>0.0005715864826925099</v>
       </c>
       <c r="EF6" t="n">
-        <v>2.016165446400153e-12</v>
+        <v>0.000312513584503904</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.514248787805929e-12</v>
+        <v>0.0006530935643240809</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.167742768801161e-12</v>
+        <v>8.744140359340236e-05</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.678511062780386e-12</v>
+        <v>0.000728786806575954</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.211247894859381e-12</v>
+        <v>0.0001453068107366562</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.404080194125634e-12</v>
+        <v>0.0007487980183213949</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.729879690355208e-12</v>
+        <v>0.0009906075429171324</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.729249122367493e-12</v>
+        <v>0.0002537558320909739</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.658238000037948e-12</v>
+        <v>0.0001451667922083288</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.15055186800306e-12</v>
+        <v>0.0007930691353976727</v>
       </c>
       <c r="EP6" t="n">
-        <v>2.285698540160919e-12</v>
+        <v>0.0001625004515517503</v>
       </c>
       <c r="EQ6" t="n">
-        <v>1.399665431299491e-12</v>
+        <v>0.0007923076627776027</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.433038366790984e-12</v>
+        <v>0.0007644204888492823</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.345195218578233e-12</v>
+        <v>0.0008481384720653296</v>
       </c>
       <c r="ET6" t="n">
-        <v>2.557642032191554e-12</v>
+        <v>0.001072322018444538</v>
       </c>
       <c r="EU6" t="n">
-        <v>8.552235525663421e-14</v>
+        <v>0.001289137988351285</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.996102718879178e-12</v>
+        <v>0.0003184931119903922</v>
       </c>
       <c r="EW6" t="n">
-        <v>8.595257345494003e-14</v>
+        <v>0.0004557364736683667</v>
       </c>
       <c r="EX6" t="n">
-        <v>9.496929067806525e-13</v>
+        <v>0.0001565332058817148</v>
       </c>
       <c r="EY6" t="n">
-        <v>7.093488123277591e-13</v>
+        <v>0.001031736959703267</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.306428489694644e-12</v>
+        <v>0.0003579017939046025</v>
       </c>
       <c r="FA6" t="n">
-        <v>7.355330537348048e-14</v>
+        <v>0.0005381455994211137</v>
       </c>
       <c r="FB6" t="n">
-        <v>7.962913098000235e-13</v>
+        <v>0.0004381128237582743</v>
       </c>
       <c r="FC6" t="n">
-        <v>3.310306401823476e-13</v>
+        <v>0.0002433800691505894</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.87675743001936e-12</v>
+        <v>0.001012105261906981</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.764236218053383e-12</v>
+        <v>3.250070585636422e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.508657565194027e-12</v>
+        <v>0.0005741071072407067</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.392804971431157e-13</v>
+        <v>0.0008050996111705899</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.910036148342065e-12</v>
+        <v>0.00099754030816257</v>
       </c>
       <c r="FI6" t="n">
-        <v>1.600317534738993e-12</v>
+        <v>0.0006524514756165445</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.393274818434209e-12</v>
+        <v>0.0009625165839679539</v>
       </c>
       <c r="FK6" t="n">
-        <v>4.455840644373987e-12</v>
+        <v>0.0004638265818357468</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.42742610266533e-12</v>
+        <v>0.0005553301307372749</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.232121822445809e-12</v>
+        <v>0.000637577788438648</v>
       </c>
       <c r="FN6" t="n">
-        <v>4.296899207972826e-12</v>
+        <v>0.0004982225364074111</v>
       </c>
       <c r="FO6" t="n">
-        <v>9.616597882594613e-13</v>
+        <v>0.0001100634544854984</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.592936611609364e-12</v>
+        <v>0.001505784341134131</v>
       </c>
       <c r="FQ6" t="n">
-        <v>3.188084778810163e-12</v>
+        <v>5.931624036747962e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>2.433746780494683e-12</v>
+        <v>0.0005808713613077998</v>
       </c>
       <c r="FS6" t="n">
-        <v>5.700499100536049e-12</v>
+        <v>0.0009472712408751249</v>
       </c>
       <c r="FT6" t="n">
-        <v>6.613867873511703e-12</v>
+        <v>0.001128385774791241</v>
       </c>
       <c r="FU6" t="n">
-        <v>3.117888542833458e-12</v>
+        <v>0.00102438498288393</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.238680161387174e-13</v>
+        <v>0.0004815349821001291</v>
       </c>
       <c r="FW6" t="n">
-        <v>5.554871233132141e-12</v>
+        <v>0.0002688935492187738</v>
       </c>
       <c r="FX6" t="n">
-        <v>2.752686533574744e-12</v>
+        <v>0.000761499279178679</v>
       </c>
       <c r="FY6" t="n">
-        <v>9.279769877870714e-13</v>
+        <v>0.0009609483531676233</v>
       </c>
       <c r="FZ6" t="n">
-        <v>5.613752518396353e-12</v>
+        <v>0.001104395953007042</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.677668204011495e-12</v>
+        <v>0.0006754219648428261</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.853319139462963e-12</v>
+        <v>0.0006184470257721841</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.700114007907594e-12</v>
+        <v>0.0008598918793722987</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.070411012431272e-12</v>
+        <v>0.000782573246397078</v>
       </c>
       <c r="GE6" t="n">
-        <v>2.948376135250563e-13</v>
+        <v>0.001417660270817578</v>
       </c>
       <c r="GF6" t="n">
-        <v>2.071113029342153e-12</v>
+        <v>0.001011593965813518</v>
       </c>
       <c r="GG6" t="n">
-        <v>3.180791784476722e-12</v>
+        <v>0.0003921229508705437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0003709300945047289</v>
+        <v>7.13195331627503e-05</v>
       </c>
       <c r="B7" t="n">
-        <v>0.001809129258617759</v>
+        <v>0.001009379979223013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005935188382863998</v>
+        <v>0.0001994985359488055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008884305134415627</v>
+        <v>0.0001024423763738014</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001859253738075495</v>
+        <v>0.0009744716226123273</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004491344094276428</v>
+        <v>0.0002002780965995044</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001182736596092582</v>
+        <v>0.0002140875003533438</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00172137632034719</v>
+        <v>5.529272311832756e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003621942363679409</v>
+        <v>0.0002458250091876835</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002633950905874372</v>
+        <v>0.0001092414604499936</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005018908414058387</v>
+        <v>0.0006347574526444077</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005752386525273323</v>
+        <v>5.766795948147774e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008670228533446789</v>
+        <v>0.0003195949248038232</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006242950446903706</v>
+        <v>0.00125512236263603</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005735527956858277</v>
+        <v>0.0001566320570418611</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00194132630713284</v>
+        <v>0.0001286965270992368</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001482245163060725</v>
+        <v>0.0002720183110795915</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003854044247418642</v>
+        <v>0.0002301649801665917</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0007684531738050282</v>
+        <v>8.396324119530618e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0006071277312003076</v>
+        <v>0.0003606713726185262</v>
       </c>
       <c r="U7" t="n">
-        <v>0.000734545465093106</v>
+        <v>0.0001522309612482786</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001342404284514487</v>
+        <v>4.393552444525994e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>0.006211991887539625</v>
+        <v>0.0001002754288492724</v>
       </c>
       <c r="X7" t="n">
-        <v>5.891380715183914e-05</v>
+        <v>0.0002611405216157436</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0005088353645987809</v>
+        <v>8.450642053503543e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0006686802371405065</v>
+        <v>9.056246199179441e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.583355282898992e-05</v>
+        <v>9.562671039020643e-06</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.00150288746226579</v>
+        <v>2.149549982277676e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001545527949929237</v>
+        <v>0.000248167896643281</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001550687593407929</v>
+        <v>0.0001320501905865967</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.000554258527699858</v>
+        <v>0.0002249634417239577</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0001127419527620077</v>
+        <v>3.967167867813259e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.001893113600090146</v>
+        <v>5.193048127694055e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0004694934468716383</v>
+        <v>0.0001266463950742036</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.001081202644854784</v>
+        <v>8.602515299571678e-05</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0001032993313856423</v>
+        <v>0.0001120765664381906</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.001734086195938289</v>
+        <v>0.000135634298203513</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0002634881529957056</v>
+        <v>0.0001879425108199939</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0008175430120900273</v>
+        <v>3.850682696793228e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003528850385919213</v>
+        <v>9.001006401376799e-05</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0002848540025297552</v>
+        <v>0.0001529378059785813</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.003149748779833317</v>
+        <v>0.0001894323359010741</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4.380774771561846e-05</v>
+        <v>9.834138472797349e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0004913166631013155</v>
+        <v>7.140090747270733e-05</v>
       </c>
       <c r="AS7" t="n">
-        <v>5.407643038779497e-05</v>
+        <v>3.055453271372244e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.00012825163139496</v>
+        <v>0.0002363677485845983</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.001481698825955391</v>
+        <v>0.001017609960399568</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.00353506556712091</v>
+        <v>8.328210969921201e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.005545857362449169</v>
+        <v>0.0002455882786307484</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0006661267834715545</v>
+        <v>5.222406616667286e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0008302523638121784</v>
+        <v>0.0001774332777131349</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0003073473926633596</v>
+        <v>0.0001022368232952431</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.002908424474298954</v>
+        <v>2.256727020721883e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.001288377912715077</v>
+        <v>0.0001563608238939196</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.001233098097145557</v>
+        <v>2.490352926542982e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.826568718068302e-05</v>
+        <v>8.876229549059644e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.002073374576866627</v>
+        <v>3.43824976880569e-05</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.005118930712342262</v>
+        <v>0.0001711432414595038</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002460831310600042</v>
+        <v>0.0006417446420527995</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.002448824234306812</v>
+        <v>0.0001311672531301156</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001083375886082649</v>
+        <v>6.13366937614046e-05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.0001209425536217168</v>
+        <v>0.000133871057187207</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0007593754562549293</v>
+        <v>0.0002662026672624052</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.002258136868476868</v>
+        <v>0.0001104622351704165</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0007546200649812818</v>
+        <v>0.0004122166719753295</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0007753538666293025</v>
+        <v>2.371285700064618e-05</v>
       </c>
       <c r="BO7" t="n">
-        <v>3.99251002818346e-05</v>
+        <v>0.0001610203180462122</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.003526072250679135</v>
+        <v>0.0006078622536733747</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0001851670094765723</v>
+        <v>0.0002046427835011855</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0002128936466760933</v>
+        <v>4.827304292120971e-05</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0003240935911890119</v>
+        <v>0.0001655374944675714</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0008394115720875561</v>
+        <v>8.663290645927191e-05</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.001460140221752226</v>
+        <v>0.0001236279786098748</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.000509572506416589</v>
+        <v>0.0005961291608400643</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.001303306082263589</v>
+        <v>0.0002503056894056499</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.004852383863180876</v>
+        <v>2.449014391459059e-05</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.001473376876674592</v>
+        <v>9.484523616265506e-05</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.003896681359037757</v>
+        <v>0.0001518776261946186</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0004219908441882581</v>
+        <v>0.000116701477963943</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.001365797244943678</v>
+        <v>9.490850061411038e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0002123282174579799</v>
+        <v>3.749524330487475e-05</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.001649570884183049</v>
+        <v>2.553452031861525e-05</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.662461727391928e-05</v>
+        <v>0.0001836304436437786</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0009525270434096456</v>
+        <v>3.424649548833258e-05</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.002205804921686649</v>
+        <v>0.0001028625047183596</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0007932308944873512</v>
+        <v>0.0001129425363615155</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0009056954295374453</v>
+        <v>2.180237606808078e-05</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0002226258802693337</v>
+        <v>1.046613760991022e-05</v>
       </c>
       <c r="CK7" t="n">
-        <v>9.477060666540638e-05</v>
+        <v>3.260877929278649e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.001076688058674335</v>
+        <v>7.878518954385072e-05</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0004151989705860615</v>
+        <v>0.0003326829464640468</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0003599098417907953</v>
+        <v>0.0003397983673494309</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.000405879516620189</v>
+        <v>1.113236794481054e-05</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.005051730200648308</v>
+        <v>6.341411790344864e-05</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0003378532128408551</v>
+        <v>0.0004516876651905477</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.005163665860891342</v>
+        <v>8.543123112758622e-05</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0003396859974600375</v>
+        <v>7.874017319409177e-05</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.00081780762411654</v>
+        <v>0.0002134462411049753</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0007565793348476291</v>
+        <v>6.64596664137207e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.001625680713914335</v>
+        <v>2.427021536277607e-05</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0006081602768972516</v>
+        <v>0.0001347400393569842</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0009811044437810779</v>
+        <v>1.392506328556919e-05</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.001871597720310092</v>
+        <v>0.0001151212272816338</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0005655441200360656</v>
+        <v>0.0001157494261860847</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0006774748908355832</v>
+        <v>6.433633825508878e-05</v>
       </c>
       <c r="DB7" t="n">
-        <v>3.284195554442704e-05</v>
+        <v>9.756506187841296e-06</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.594329660292715e-06</v>
+        <v>1.60931667778641e-05</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.001235290779732168</v>
+        <v>7.795022975187749e-05</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.002069732872769237</v>
+        <v>0.0002555548853706568</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0008910123142413795</v>
+        <v>0.0007654690998606384</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.001022102660499513</v>
+        <v>0.0001008461331366561</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.00112904782872647</v>
+        <v>0.0003063862095586956</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.00374763086438179</v>
+        <v>3.038962313439697e-05</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0006505950586870313</v>
+        <v>0.0001053106097970158</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.000661947822663933</v>
+        <v>0.0004119643417652696</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.001254278817214072</v>
+        <v>0.0003485851048026234</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0007668746402487159</v>
+        <v>0.0001100781446439214</v>
       </c>
       <c r="DN7" t="n">
-        <v>8.398003410547972e-05</v>
+        <v>0.0001730174408294261</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0006082502077333629</v>
+        <v>0.0002127057960024104</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0004241945862304419</v>
+        <v>9.717185093904845e-06</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0008806443074718118</v>
+        <v>7.685837044846267e-05</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.001385376090183854</v>
+        <v>6.279043009271845e-05</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.001096608815714717</v>
+        <v>0.0001575940405018628</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.000786715536378324</v>
+        <v>0.000121245211630594</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0006804835284128785</v>
+        <v>0.0002018020750256255</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.001100186491385102</v>
+        <v>5.116256215842441e-05</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0006222601514309645</v>
+        <v>9.629283886170015e-05</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.001386186107993126</v>
+        <v>2.463564851495903e-05</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0006060227751731873</v>
+        <v>1.005712783808121e-05</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.001937503227964044</v>
+        <v>0.0001722458691801876</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0002817799104377627</v>
+        <v>0.0001854491565609351</v>
       </c>
       <c r="EB7" t="n">
-        <v>8.664204506203532e-05</v>
+        <v>0.0001628835743758827</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.00013777356070932</v>
+        <v>6.512791878776625e-05</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0003454133111517876</v>
+        <v>5.681873153662309e-05</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.001144731068052351</v>
+        <v>2.950328962469939e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.001445040805265307</v>
+        <v>0.0001100512381526642</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0008259869064204395</v>
+        <v>8.266557415481657e-05</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.001168364309705794</v>
+        <v>1.639141555642709e-05</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.001147396513260901</v>
+        <v>0.0002112093497999012</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0005569635541178286</v>
+        <v>0.0001919235946843401</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.002038307953625917</v>
+        <v>8.337796316482127e-06</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.000654163071885705</v>
+        <v>5.902535122004338e-05</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0001681987778283656</v>
+        <v>7.502846528950613e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0002808455610647798</v>
+        <v>0.0001148651354014874</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.002421212382614613</v>
+        <v>0.0001541060482850298</v>
       </c>
       <c r="EP7" t="n">
-        <v>5.799881182610989e-05</v>
+        <v>6.192071850819048e-06</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0006244556279852986</v>
+        <v>7.325949263758957e-05</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0007095355540513992</v>
+        <v>3.107194061158225e-06</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0004129625449422747</v>
+        <v>3.034104338439647e-05</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0003189234412275255</v>
+        <v>0.0001604027347639203</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0003717414219863713</v>
+        <v>1.047816112986766e-05</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0002109694760292768</v>
+        <v>9.237308404408395e-05</v>
       </c>
       <c r="EW7" t="n">
-        <v>3.516441211104393e-05</v>
+        <v>3.562774145393632e-05</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.001417452935129404</v>
+        <v>2.309595947735943e-05</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0003742525586858392</v>
+        <v>0.0001256940158782527</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0008085655281320214</v>
+        <v>3.140651097055525e-05</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.001444779336452484</v>
+        <v>0.0001123640977311879</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001155531033873558</v>
+        <v>0.0001139578598667867</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.001088665565475821</v>
+        <v>7.239683327497914e-05</v>
       </c>
       <c r="FD7" t="n">
-        <v>5.75593912799377e-05</v>
+        <v>3.127271156699862e-06</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.380610046908259e-05</v>
+        <v>3.602053402573802e-05</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0007765998016111553</v>
+        <v>3.808017572737299e-05</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0002468241436872631</v>
+        <v>0.0001414959406247362</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0004320504376664758</v>
+        <v>0.0001710768701741472</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.001380588742904365</v>
+        <v>2.856994797184598e-05</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.00112439296208322</v>
+        <v>2.293203579029068e-06</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.001072731567546725</v>
+        <v>1.167773916677106e-06</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0001963375834748149</v>
+        <v>1.930532198457513e-05</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0004881927161477506</v>
+        <v>2.387211497989483e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0007261490100063384</v>
+        <v>5.483751374413259e-05</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.002398615470156074</v>
+        <v>5.018697265768424e-05</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0009488834184594452</v>
+        <v>9.322142432210967e-05</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0009900537552312016</v>
+        <v>1.794945819710847e-05</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0002487148158252239</v>
+        <v>0.0001041589057422243</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001526478910818696</v>
+        <v>0.000416579598095268</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.001620878465473652</v>
+        <v>0.0001267176703549922</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.001841484685428441</v>
+        <v>0.0001396299921907485</v>
       </c>
       <c r="FV7" t="n">
-        <v>1.725941547192633e-05</v>
+        <v>0.0001133138139266521</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0007955549517646432</v>
+        <v>0.0001033282751450315</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.001430642325431108</v>
+        <v>3.229615322197787e-05</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.001196703058667481</v>
+        <v>5.322221113601699e-05</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.001158731523901224</v>
+        <v>0.0002961406717076898</v>
       </c>
       <c r="GA7" t="n">
-        <v>1.945055555552244e-05</v>
+        <v>0.0001648249453864992</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.00271182507276535</v>
+        <v>0.0002735407324507833</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.001068668905645609</v>
+        <v>0.0001330568047706038</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0006957919104024768</v>
+        <v>0.0002806366246659309</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0003056926361750811</v>
+        <v>5.721608249587007e-05</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0009236005716957152</v>
+        <v>0.0002389211149420589</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.001852771267294884</v>
+        <v>0.0001538087817607448</v>
       </c>
     </row>
     <row r="8">
@@ -4987,5123 +4987,1709 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.09993311762809753</v>
+        <v>0.04546200856566429</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6232074499130249</v>
+        <v>1.385747313499451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3641181290149689</v>
+        <v>0.007992341183125973</v>
       </c>
       <c r="D9" t="n">
-        <v>1.703017711639404</v>
+        <v>1.133993744850159</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7749287486076355</v>
+        <v>0.04174492508172989</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3902443051338196</v>
+        <v>0.5276345014572144</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05881570279598236</v>
+        <v>0.1103103905916214</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7704668641090393</v>
+        <v>0.3226926028728485</v>
       </c>
       <c r="I9" t="n">
-        <v>0.234053835272789</v>
+        <v>0.6466566324234009</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1602804511785507</v>
+        <v>0.2638844847679138</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5629842877388</v>
+        <v>0.9673283696174622</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3703162372112274</v>
+        <v>0.07511482387781143</v>
       </c>
       <c r="M9" t="n">
-        <v>1.628144264221191</v>
+        <v>1.110344648361206</v>
       </c>
       <c r="N9" t="n">
-        <v>1.170576930046082</v>
+        <v>0.2005384117364883</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2957758903503418</v>
+        <v>0.7042844891548157</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1428507566452026</v>
+        <v>0.1078560575842857</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.247622609138489</v>
+        <v>0.03948661312460899</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2237915098667145</v>
+        <v>0.3317060470581055</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2440547943115234</v>
+        <v>0.1537916660308838</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2561542093753815</v>
+        <v>0.1014343798160553</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2218576967716217</v>
+        <v>0.2394886165857315</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001785367727279663</v>
+        <v>0.3230644166469574</v>
       </c>
       <c r="W9" t="n">
-        <v>1.187618970870972</v>
+        <v>0.3779087662696838</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1213211268186569</v>
+        <v>0.1151987463235855</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.005961395800113678</v>
+        <v>0.04102064669132233</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6403837203979492</v>
+        <v>0.4166187942028046</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.04342386499047279</v>
+        <v>0.2278766930103302</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3842776119709015</v>
+        <v>0.03965869545936584</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.05621848627924919</v>
+        <v>0.01716366037726402</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2540412545204163</v>
+        <v>0.1369592696428299</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.436539888381958</v>
+        <v>0.03018015623092651</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2510986924171448</v>
+        <v>0.232346773147583</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.2460792511701584</v>
+        <v>0.2879751622676849</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.3235995173454285</v>
+        <v>0.09107127785682678</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.4211899042129517</v>
+        <v>0.0648266077041626</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.1384072005748749</v>
+        <v>0.1446070373058319</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.2530486881732941</v>
+        <v>0.1315977573394775</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.2436822205781937</v>
+        <v>0.2570760548114777</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.08810948580503464</v>
+        <v>0.1090682446956635</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.3100833594799042</v>
+        <v>0.07219387590885162</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.3197959959506989</v>
+        <v>0.005887158215045929</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.2615791261196136</v>
+        <v>0.181947723031044</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01507723052054644</v>
+        <v>0.04378316923975945</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.08828705549240112</v>
+        <v>0.1613566875457764</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.1350797712802887</v>
+        <v>0.1908616870641708</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1743047684431076</v>
+        <v>0.0545182079076767</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2228084355592728</v>
+        <v>0.9949589967727661</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.05458517372608185</v>
+        <v>0.04224036261439323</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.7535032033920288</v>
+        <v>0.2948479652404785</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.1144418865442276</v>
+        <v>0.09814004600048065</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.3748119473457336</v>
+        <v>0.3394431173801422</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0776752308011055</v>
+        <v>0.08168581873178482</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0655384361743927</v>
+        <v>0.06385538727045059</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.2003348171710968</v>
+        <v>0.3936606645584106</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.1274552345275879</v>
+        <v>0.04990196228027344</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.2493251115083694</v>
+        <v>0.184285581111908</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.08956509828567505</v>
+        <v>0.2772918045520782</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.8636055588722229</v>
+        <v>0.4967262148857117</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.4243394136428833</v>
+        <v>0.1598756611347198</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.1888004541397095</v>
+        <v>0.1502722650766373</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.2530114352703094</v>
+        <v>0.2361905574798584</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.3568918704986572</v>
+        <v>0.02656040340662003</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.001138072460889816</v>
+        <v>0.254923939704895</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.1919243186712265</v>
+        <v>0.2237486094236374</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.1743990927934647</v>
+        <v>0.2416839450597763</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.2500896155834198</v>
+        <v>0.1883213818073273</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.1198872476816177</v>
+        <v>0.04114466160535812</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.2543240785598755</v>
+        <v>0.2352344989776611</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.1020357459783554</v>
+        <v>0.1128470748662949</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.08623044937849045</v>
+        <v>0.02261626347899437</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.03869593143463135</v>
+        <v>0.20601786673069</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.03840154409408569</v>
+        <v>0.03476089239120483</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.3645261228084564</v>
+        <v>0.08105719089508057</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.1511118412017822</v>
+        <v>0.5541158318519592</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.06682610511779785</v>
+        <v>0.1617632061243057</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.7464860081672668</v>
+        <v>0.1801520735025406</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.006252650171518326</v>
+        <v>0.09842337667942047</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.4002596437931061</v>
+        <v>0.1226134300231934</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.03187316283583641</v>
+        <v>0.02941260486841202</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.4050056338310242</v>
+        <v>0.2383393943309784</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.110312856733799</v>
+        <v>0.2669218182563782</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.2317936271429062</v>
+        <v>0.07430590689182281</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.1747574359178543</v>
+        <v>0.1817952394485474</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.13045434653759</v>
+        <v>0.2059399783611298</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.3178260922431946</v>
+        <v>0.1613432466983795</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.2984606027603149</v>
+        <v>0.002565891481935978</v>
       </c>
       <c r="CI9" t="n">
-        <v>0.06823984533548355</v>
+        <v>0.0259960014373064</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.05960670113563538</v>
+        <v>0.09280452132225037</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.146436333656311</v>
+        <v>0.08731067925691605</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.05110367015004158</v>
+        <v>0.05557956919074059</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.1093298047780991</v>
+        <v>0.1750975102186203</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.09417582303285599</v>
+        <v>0.01611783355474472</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.1696068644523621</v>
+        <v>0.0347445085644722</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.6030848026275635</v>
+        <v>0.1001162976026535</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.3469256460666656</v>
+        <v>0.08530299365520477</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.841363251209259</v>
+        <v>0.0004641525447368622</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.1543468236923218</v>
+        <v>0.3173578083515167</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.1313453912734985</v>
+        <v>0.158295601606369</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.05577260255813599</v>
+        <v>0.05794637650251389</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.2648738324642181</v>
+        <v>0.06856627762317657</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.2493970990180969</v>
+        <v>0.158930629491806</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.1581790745258331</v>
+        <v>0.1698146909475327</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.2893780469894409</v>
+        <v>0.1909789592027664</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.3114140927791595</v>
+        <v>0.0423702746629715</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.08219102770090103</v>
+        <v>0.0609000027179718</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.03532825037837029</v>
+        <v>0.100502610206604</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.1946409642696381</v>
+        <v>0.1365500390529633</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.07246623933315277</v>
+        <v>0.02233572490513325</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.09206157922744751</v>
+        <v>0.1195746511220932</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.1755509376525879</v>
+        <v>0.1208014860749245</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.2033714652061462</v>
+        <v>0.03558982536196709</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.03134630620479584</v>
+        <v>0.4762754440307617</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.2299215793609619</v>
+        <v>0.1788713335990906</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.2017455995082855</v>
+        <v>0.03585653007030487</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.06616286933422089</v>
+        <v>0.112839363515377</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.08066388219594955</v>
+        <v>0.04756521806120872</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.04168573766946793</v>
+        <v>0.0488896556198597</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.08813862502574921</v>
+        <v>0.06184220314025879</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.1076379269361496</v>
+        <v>0.08282625675201416</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.1265002638101578</v>
+        <v>0.1397004276514053</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.1350454986095428</v>
+        <v>0.1406605541706085</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.5900465250015259</v>
+        <v>0.06364592164754868</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.2109719216823578</v>
+        <v>0.2286755740642548</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.2098968476057053</v>
+        <v>0.0391453430056572</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.2514487206935883</v>
+        <v>0.2146185487508774</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.008053692989051342</v>
+        <v>0.2531598210334778</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.1577980369329453</v>
+        <v>0.1113692969083786</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.2779954969882965</v>
+        <v>0.1033594161272049</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.0387224406003952</v>
+        <v>0.2034102082252502</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.1954123079776764</v>
+        <v>0.1091063395142555</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.1216331720352173</v>
+        <v>0.1175588369369507</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.1501688361167908</v>
+        <v>0.1719332337379456</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.003046736121177673</v>
+        <v>0.06224581599235535</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.2215717285871506</v>
+        <v>0.06951373070478439</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.01681408099830151</v>
+        <v>0.1043486148118973</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.1073587983846664</v>
+        <v>0.0265437513589859</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.2461078315973282</v>
+        <v>0.1018094569444656</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.1607475876808167</v>
+        <v>0.1472886651754379</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.4818139970302582</v>
+        <v>0.03648614138364792</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.02407143637537956</v>
+        <v>0.008845368400216103</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.08657098561525345</v>
+        <v>0.06025895848870277</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.04575762152671814</v>
+        <v>0.04714168235659599</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.2859617173671722</v>
+        <v>0.1421172320842743</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.1580487340688705</v>
+        <v>0.03807514160871506</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.3146693408489227</v>
+        <v>0.009678401052951813</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.2434365898370743</v>
+        <v>0.06384514272212982</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.3466383218765259</v>
+        <v>0.1941906213760376</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.1000381112098694</v>
+        <v>0.1242864429950714</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.1990169435739517</v>
+        <v>0.1048306375741959</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.1029917001724243</v>
+        <v>0.3740686476230621</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.08585866540670395</v>
+        <v>0.2448352128267288</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.09839805960655212</v>
+        <v>0.501183807849884</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.02414682880043983</v>
+        <v>0.1382974833250046</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.2166828811168671</v>
+        <v>0.05841126292943954</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.1992768049240112</v>
+        <v>0.1323789060115814</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.1552248299121857</v>
+        <v>0.1549175381660461</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.2492662370204926</v>
+        <v>0.1832483410835266</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.3703973889350891</v>
+        <v>0.01017135195434093</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.1480219960212708</v>
+        <v>0.04197733104228973</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.02975651621818542</v>
+        <v>0.1595830172300339</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.1913877576589584</v>
+        <v>0.1255858391523361</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.02944415435194969</v>
+        <v>0.05110086873173714</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.06707923114299774</v>
+        <v>0.09462978690862656</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.09486500173807144</v>
+        <v>0.1843734830617905</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.2801660299301147</v>
+        <v>0.1320224553346634</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.07027016580104828</v>
+        <v>0.05176395177841187</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.09394679218530655</v>
+        <v>0.01060154289007187</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.1745339781045914</v>
+        <v>0.124079518020153</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.1465726345777512</v>
+        <v>0.05077390372753143</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.01746140606701374</v>
+        <v>0.009326659142971039</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.08956332504749298</v>
+        <v>0.1049070060253143</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.2453925311565399</v>
+        <v>0.02695765160024166</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.3702352643013</v>
+        <v>0.05669305846095085</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.2684873342514038</v>
+        <v>0.108363576233387</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.2649960517883301</v>
+        <v>0.1475080251693726</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.4401390254497528</v>
+        <v>0.1574712097644806</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.1873441934585571</v>
+        <v>0.001716338098049164</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.0258856937289238</v>
+        <v>0.3461826741695404</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.04825660586357117</v>
+        <v>0.1357624381780624</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.2971563637256622</v>
+        <v>0.1231374144554138</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.2555401921272278</v>
+        <v>0.2655438780784607</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.05161049962043762</v>
+        <v>0.04918681085109711</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.0188678503036499</v>
+        <v>0.1832198053598404</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.2516811788082123</v>
+        <v>0.01083396375179291</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.03049721755087376</v>
+        <v>0.1032491698861122</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.2077761739492416</v>
+        <v>0.04084870219230652</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.09840711206197739</v>
+        <v>0.654665470123291</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.1250946968793869</v>
+        <v>0.03360115364193916</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.2258904129266739</v>
+        <v>0.0646803006529808</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.06717307865619659</v>
+        <v>0.03448669612407684</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04365456849336624</v>
+        <v>0.8757910132408142</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1531558930873871</v>
+        <v>0.1160987019538879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4955283999443054</v>
+        <v>0.01770175620913506</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07958456128835678</v>
+        <v>0.2324530482292175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3375052213668823</v>
+        <v>0.04034783691167831</v>
       </c>
       <c r="G10" t="n">
-        <v>0.175649106502533</v>
+        <v>0.2623535990715027</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8029400706291199</v>
+        <v>0.1226501613855362</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02271861396729946</v>
+        <v>0.1788141578435898</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03520579263567924</v>
+        <v>0.1875080913305283</v>
       </c>
       <c r="K10" t="n">
-        <v>0.008715076372027397</v>
+        <v>0.6432945728302002</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1838884949684143</v>
+        <v>0.1302278339862823</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3413572311401367</v>
+        <v>0.3473512828350067</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2986644506454468</v>
+        <v>0.1620916128158569</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03826082870364189</v>
+        <v>0.00431644544005394</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0863645151257515</v>
+        <v>0.3735738694667816</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.059755802154541</v>
+        <v>0.1143015921115875</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01497911848127842</v>
+        <v>0.1400550305843353</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04821797832846642</v>
+        <v>0.04242983460426331</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01689291559159756</v>
+        <v>0.08693990111351013</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05386947840452194</v>
+        <v>0.1145356148481369</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02427772618830204</v>
+        <v>0.0997927114367485</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4223752319812775</v>
+        <v>0.2154795229434967</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2321415543556213</v>
+        <v>0.06277754902839661</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01652877777814865</v>
+        <v>0.01234362926334143</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2803739607334137</v>
+        <v>0.03921434283256531</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.04378310218453407</v>
+        <v>0.03120513260364532</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.1297554671764374</v>
+        <v>0.2038493156433105</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.06631043553352356</v>
+        <v>0.1310625821352005</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06516139209270477</v>
+        <v>0.08423423767089844</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3442525565624237</v>
+        <v>0.01072369702160358</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.07677099853754044</v>
+        <v>0.08375253528356552</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.1408299505710602</v>
+        <v>0.04647468775510788</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.2700484097003937</v>
+        <v>0.04021420329809189</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1582699865102768</v>
+        <v>0.03020507842302322</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.01851330697536469</v>
+        <v>0.09204098582267761</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.05048001557588577</v>
+        <v>0.09876324236392975</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001333620399236679</v>
+        <v>0.01885370723903179</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2008844166994095</v>
+        <v>0.008356660604476929</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.06904845684766769</v>
+        <v>0.03011367470026016</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.2414901405572891</v>
+        <v>0.02638114430010319</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.05523879826068878</v>
+        <v>0.01535351760685444</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0759131982922554</v>
+        <v>0.05678465589880943</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.06904552131891251</v>
+        <v>0.02169294282793999</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.03121441788971424</v>
+        <v>0.01867617294192314</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.04637950286269188</v>
+        <v>0.001628955826163292</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.09498157352209091</v>
+        <v>0.5514150261878967</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.1162200346589088</v>
+        <v>0.150214746594429</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.188157394528389</v>
+        <v>0.1903692334890366</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.09328199923038483</v>
+        <v>0.3737103939056396</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.2300385683774948</v>
+        <v>0.1729788929224014</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.3278466463088989</v>
+        <v>0.2542185187339783</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.4501370787620544</v>
+        <v>0.04988505691289902</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.09435737133026123</v>
+        <v>0.02744780294597149</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.03096035681664944</v>
+        <v>0.05472108349204063</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.03561335429549217</v>
+        <v>0.2298747450113297</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.03509550541639328</v>
+        <v>0.1691094636917114</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.3060805797576904</v>
+        <v>0.02181225270032883</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.2484970539808273</v>
+        <v>0.1010103151202202</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.07822482287883759</v>
+        <v>0.06892826408147812</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.1402344256639481</v>
+        <v>0.1433489322662354</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1018799096345901</v>
+        <v>0.01141678169369698</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.04579642415046692</v>
+        <v>0.1032232642173767</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.01178799383342266</v>
+        <v>0.1098687350749969</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.1443033814430237</v>
+        <v>0.07832866907119751</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.002212129067629576</v>
+        <v>0.07398363202810287</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0417652502655983</v>
+        <v>0.02500893548130989</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0162617564201355</v>
+        <v>0.08106739073991776</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.09027843177318573</v>
+        <v>0.03450010344386101</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.1405482292175293</v>
+        <v>0.06364361941814423</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.1274700313806534</v>
+        <v>0.1363312304019928</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.02092295140028</v>
+        <v>0.005016159266233444</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.07006918638944626</v>
+        <v>0.04256888851523399</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.1045533642172813</v>
+        <v>0.2251221239566803</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.05131841078400612</v>
+        <v>0.1373065561056137</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.07015526294708252</v>
+        <v>0.1722966134548187</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.1103754937648773</v>
+        <v>0.2653641104698181</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.1802007704973221</v>
+        <v>0.03408755734562874</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.2138851433992386</v>
+        <v>0.05406586825847626</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.413642406463623</v>
+        <v>0.09602122753858566</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.06454557180404663</v>
+        <v>0.02933979779481888</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.04418682679533958</v>
+        <v>0.02093266323208809</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.06452792882919312</v>
+        <v>0.1571191549301147</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.02273867279291153</v>
+        <v>0.01211525313556194</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.09168628603219986</v>
+        <v>0.04586708918213844</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.03549601882696152</v>
+        <v>0.05406801402568817</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0701892077922821</v>
+        <v>0.03996411338448524</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.001891862601041794</v>
+        <v>0.04424380511045456</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.1303243488073349</v>
+        <v>0.03362729772925377</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.03180677071213722</v>
+        <v>0.01699922606348991</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.1660715341567993</v>
+        <v>0.007363341748714447</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.1469601094722748</v>
+        <v>0.1854237914085388</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.01411472633481026</v>
+        <v>0.002313511213287711</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.007522482424974442</v>
+        <v>0.2819135189056396</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.2921812236309052</v>
+        <v>0.3156176805496216</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.07327289134263992</v>
+        <v>0.1931768655776978</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.00365404412150383</v>
+        <v>0.1506761163473129</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.1228980123996735</v>
+        <v>0.104250006377697</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.1270412802696228</v>
+        <v>0.08945846557617188</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0683029443025589</v>
+        <v>0.02033743634819984</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.05043641477823257</v>
+        <v>0.1562246531248093</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0187994446605444</v>
+        <v>0.02879786863923073</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0475379079580307</v>
+        <v>0.03021139651536942</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.04879483208060265</v>
+        <v>0.07249090075492859</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0526101291179657</v>
+        <v>0.06794334203004837</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0007801242172718048</v>
+        <v>0.02245588228106499</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.1371781677007675</v>
+        <v>0.03426380455493927</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.04056371375918388</v>
+        <v>0.03139084577560425</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.2020589262247086</v>
+        <v>0.04806970059871674</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.2078123539686203</v>
+        <v>0.3250901997089386</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.05380140244960785</v>
+        <v>0.1864385306835175</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.1189117357134819</v>
+        <v>0.05961743742227554</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.2357305735349655</v>
+        <v>0.187315359711647</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.03254544734954834</v>
+        <v>0.5609477758407593</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.07493428885936737</v>
+        <v>0.07991886883974075</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.1296958476305008</v>
+        <v>0.1559150367975235</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.1240479275584221</v>
+        <v>0.1528059244155884</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.1108653247356415</v>
+        <v>0.003659820184111595</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.07184118032455444</v>
+        <v>0.1651531159877777</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.02301605604588985</v>
+        <v>0.06753237545490265</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.05269120633602142</v>
+        <v>0.03711789473891258</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.02059414610266685</v>
+        <v>0.1611785739660263</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0103119220584631</v>
+        <v>0.02658830024302006</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.13943050801754</v>
+        <v>0.1138456985354424</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.07715197652578354</v>
+        <v>0.007110937498509884</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.03538176044821739</v>
+        <v>0.006204038858413696</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.1417248845100403</v>
+        <v>0.06576552242040634</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.1291806548833847</v>
+        <v>0.076081283390522</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.002576388418674469</v>
+        <v>0.06040617823600769</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.01762218587100506</v>
+        <v>0.1212179660797119</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.01646703295409679</v>
+        <v>0.02496364153921604</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.03315852209925652</v>
+        <v>0.0001753699034452438</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.05405957624316216</v>
+        <v>0.1274357885122299</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.1279868483543396</v>
+        <v>0.07679155468940735</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0356316938996315</v>
+        <v>0.110428512096405</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.1615411043167114</v>
+        <v>0.0005701230838894844</v>
       </c>
       <c r="EG10" t="n">
-        <v>1.959549263119698e-05</v>
+        <v>0.2348424196243286</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.06360931694507599</v>
+        <v>0.01773972064256668</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.2518985271453857</v>
+        <v>0.01027980912476778</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.004072296433150768</v>
+        <v>0.02857585996389389</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.1884527951478958</v>
+        <v>0.1156372725963593</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.01929316110908985</v>
+        <v>0.04083587601780891</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.2155198156833649</v>
+        <v>0.01815108396112919</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.00923535879701376</v>
+        <v>0.0444275364279747</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.004365565255284309</v>
+        <v>0.00582481175661087</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.1205988973379135</v>
+        <v>0.01290728617459536</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.06381694972515106</v>
+        <v>0.1053792536258698</v>
       </c>
       <c r="ER10" t="n">
-        <v>6.602704524993896e-05</v>
+        <v>0.117495208978653</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.09413985908031464</v>
+        <v>0.0676313191652298</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.06309466063976288</v>
+        <v>0.0635363832116127</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.03050517663359642</v>
+        <v>0.001479677855968475</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.01199689786881208</v>
+        <v>0.01940906047821045</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.005472456105053425</v>
+        <v>0.01265430450439453</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.05548418685793877</v>
+        <v>0.04025855660438538</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.03135726228356361</v>
+        <v>0.1518355906009674</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.004915664438158274</v>
+        <v>0.02026168070733547</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.07379358261823654</v>
+        <v>0.06465324759483337</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.05376530438661575</v>
+        <v>0.05918068438768387</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.03329118713736534</v>
+        <v>0.04226092249155045</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.001378960907459259</v>
+        <v>0.0452238917350769</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.146814376115799</v>
+        <v>0.04080916941165924</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.01618015021085739</v>
+        <v>0.02940181642770767</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.1212887018918991</v>
+        <v>0.1123257800936699</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.08126705139875412</v>
+        <v>0.00928291492164135</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.05615948140621185</v>
+        <v>0.01686464622616768</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.003919485956430435</v>
+        <v>0.0362856313586235</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0655418336391449</v>
+        <v>0.09098308533430099</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.01743200048804283</v>
+        <v>0.0263623371720314</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0200093649327755</v>
+        <v>0.04699090123176575</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.02401931956410408</v>
+        <v>0.008458949625492096</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.07425480335950851</v>
+        <v>0.02044224739074707</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.1421387791633606</v>
+        <v>0.06696072965860367</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.04332117736339569</v>
+        <v>0.02359765395522118</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.01421492174267769</v>
+        <v>0.04410200193524361</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.09857025742530823</v>
+        <v>0.05973772704601288</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.1441275626420975</v>
+        <v>0.1801746338605881</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.09120951592922211</v>
+        <v>0.009899459779262543</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.1616896986961365</v>
+        <v>0.2423655390739441</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.2264329195022583</v>
+        <v>0.05161152780056</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.09824810922145844</v>
+        <v>0.02206356078386307</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.04398064315319061</v>
+        <v>0.007263064384460449</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.163747102022171</v>
+        <v>0.06819997727870941</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.01084077171981335</v>
+        <v>0.1504083573818207</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.1555171310901642</v>
+        <v>0.05441200360655785</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0694807693362236</v>
+        <v>0.07082675397396088</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.005279498174786568</v>
+        <v>0.1619916558265686</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.1386769115924835</v>
+        <v>0.06954853981733322</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.05596985667943954</v>
+        <v>0.06038233637809753</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0465899370610714</v>
+        <v>0.001487515866756439</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1040897592902184</v>
+        <v>0.0008505323203280568</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03299649059772491</v>
+        <v>0.002843304304406047</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2999268174171448</v>
+        <v>0.0004335507692303509</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4316243529319763</v>
+        <v>0.0005595341790467501</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5263774394989014</v>
+        <v>0.0001836955052567646</v>
       </c>
       <c r="F11" t="n">
-        <v>1.201520681381226</v>
+        <v>0.00130123645067215</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2029555290937424</v>
+        <v>4.769855877384543e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>1.566311836242676</v>
+        <v>0.0005482171545736492</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2180949002504349</v>
+        <v>0.0001459946215618402</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01933725923299789</v>
+        <v>0.000102009333204478</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06535512208938599</v>
+        <v>0.001710486831143498</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4961230456829071</v>
+        <v>0.0008099338156171143</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2157648652791977</v>
+        <v>0.0006558189052157104</v>
       </c>
       <c r="N11" t="n">
-        <v>0.516472339630127</v>
+        <v>0.00106242869514972</v>
       </c>
       <c r="O11" t="n">
-        <v>1.076765298843384</v>
+        <v>0.001074263593181968</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1469860821962357</v>
+        <v>0.0002131786750396714</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.839309215545654</v>
+        <v>0.001764485496096313</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1655152440071106</v>
+        <v>0.0001899948401842266</v>
       </c>
       <c r="S11" t="n">
-        <v>0.323563426733017</v>
+        <v>2.055658114841208e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04802697524428368</v>
+        <v>0.00054036860819906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2073415815830231</v>
+        <v>0.000784547533839941</v>
       </c>
       <c r="V11" t="n">
-        <v>0.09745384007692337</v>
+        <v>7.536180783063173e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1763878762722015</v>
+        <v>0.0003536635776981711</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5360624194145203</v>
+        <v>0.0008458857191726565</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1642304509878159</v>
+        <v>0.0002937891113106161</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.160078227519989</v>
+        <v>0.0002231291146017611</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1905821561813354</v>
+        <v>0.0001628676109248772</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.05095517262816429</v>
+        <v>0.0001309512590523809</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1429702937602997</v>
+        <v>0.0008856215863488615</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.2380740195512772</v>
+        <v>0.0005086867022328079</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.2485145032405853</v>
+        <v>0.0004700322169810534</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.4850144684314728</v>
+        <v>0.0005019218078814447</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.10931546241045</v>
+        <v>0.0001628994941711426</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5762245655059814</v>
+        <v>0.0008253748528659344</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2024886906147003</v>
+        <v>0.0006980552570894361</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.103804849088192</v>
+        <v>4.21231088694185e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0908094123005867</v>
+        <v>0.0004867812676820904</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.2586314082145691</v>
+        <v>0.0006674053147435188</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.4166183173656464</v>
+        <v>0.000118201453005895</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.1412058770656586</v>
+        <v>0.0001021297066472471</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.668024480342865</v>
+        <v>0.0002377853234065697</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.04066721349954605</v>
+        <v>0.0007539290236309171</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.02510825172066689</v>
+        <v>0.0006081056199036539</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.006328758783638477</v>
+        <v>0.0004932766896672547</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0001902133226394653</v>
+        <v>0.0002360700309509411</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1770608276128769</v>
+        <v>0.00053895462770015</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.610211193561554</v>
+        <v>0.003804495092481375</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.1100317388772964</v>
+        <v>0.0003262669779360294</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.004603834822773933</v>
+        <v>0.0006100634927861392</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.1319717466831207</v>
+        <v>0.0008643987239338458</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.723991870880127</v>
+        <v>0.0003572950081434101</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.1394343674182892</v>
+        <v>0.0003722329856827855</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.6357352137565613</v>
+        <v>0.0004596968647092581</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.08848652243614197</v>
+        <v>0.0006475361878983676</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.221222385764122</v>
+        <v>0.0003033608663827181</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.09430655837059021</v>
+        <v>0.0007318822899833322</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.1799013912677765</v>
+        <v>0.0005353817250579596</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.4148399829864502</v>
+        <v>0.001205687178298831</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1504184454679489</v>
+        <v>0.0006985719664953649</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.03515014052391052</v>
+        <v>0.001479849102906883</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.4459116458892822</v>
+        <v>0.0001336366985924542</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.5059272646903992</v>
+        <v>0.001309941406361759</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.269324004650116</v>
+        <v>3.336419831612147e-05</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.05099990591406822</v>
+        <v>0.0001983356778509915</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.005485042929649353</v>
+        <v>0.002226844895631075</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.05541857331991196</v>
+        <v>0.0005207770154811442</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0666448175907135</v>
+        <v>0.001019244780763984</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.06825969368219376</v>
+        <v>0.002088940469548106</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.1168282330036163</v>
+        <v>0.001089965924620628</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.5222212076187134</v>
+        <v>0.0002378632489126176</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.06521279364824295</v>
+        <v>0.001271849730983377</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.2352015972137451</v>
+        <v>0.0005001036915928125</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1124574840068817</v>
+        <v>0.0005397095228545368</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.2448565661907196</v>
+        <v>0.0016177719226107</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0552242137491703</v>
+        <v>0.0003554804425220937</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.005541136488318443</v>
+        <v>8.865914423950016e-06</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.05524372681975365</v>
+        <v>0.000208415454835631</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.628209114074707</v>
+        <v>0.001270335982553661</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.217462956905365</v>
+        <v>0.0008248433005064726</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.4779449999332428</v>
+        <v>0.0001764279440976679</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.117660865187645</v>
+        <v>0.0001260311692021787</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.08483003824949265</v>
+        <v>0.0001185248984256759</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.1858330816030502</v>
+        <v>0.000428648287197575</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.08288564532995224</v>
+        <v>6.78036012686789e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.1220472604036331</v>
+        <v>0.000394594157114625</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.1619069874286652</v>
+        <v>0.0003345828736200929</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.1628965437412262</v>
+        <v>0.0003683910181280226</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.0009170332923531532</v>
+        <v>8.979240374173969e-05</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.2819138765335083</v>
+        <v>8.337509643752128e-05</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.02445871196687222</v>
+        <v>7.919032941572368e-05</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.2564811706542969</v>
+        <v>0.001016989466734231</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.1672299057245255</v>
+        <v>0.001943820039741695</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.2440530210733414</v>
+        <v>0.0001255898096133024</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.2115500420331955</v>
+        <v>0.0006152760470286012</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.123336099088192</v>
+        <v>0.00136575975921005</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.2392867654561996</v>
+        <v>0.0003284615813754499</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.1397033482789993</v>
+        <v>0.0002130060456693172</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.2388476729393005</v>
+        <v>9.048471838468686e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.289834052324295</v>
+        <v>0.0005521703860722482</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.1273639351129532</v>
+        <v>3.636760084191337e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.2523816227912903</v>
+        <v>0.0002990641514770687</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.04841936752200127</v>
+        <v>3.400749119464308e-05</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.07963733375072479</v>
+        <v>0.0004323958128225058</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.1211439445614815</v>
+        <v>0.0001467148977098987</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.1986360847949982</v>
+        <v>0.00064902997110039</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.02210173010826111</v>
+        <v>0.0001345511700492352</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.3645353615283966</v>
+        <v>5.725699884351343e-05</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.02967354655265808</v>
+        <v>5.181527740205638e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.6218923330307007</v>
+        <v>0.001752988900989294</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.5644121766090393</v>
+        <v>0.002068067668005824</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.1274735629558563</v>
+        <v>0.0007754967082291842</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.03075155988335609</v>
+        <v>0.001285947277210653</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.2587391138076782</v>
+        <v>0.001078109489753842</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.3998679220676422</v>
+        <v>0.0007399925962090492</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.03760979697108269</v>
+        <v>0.00173130095936358</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.02445019781589508</v>
+        <v>0.0006031944649294019</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.08842785656452179</v>
+        <v>0.0003892921376973391</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.1300478577613831</v>
+        <v>0.0006848495686426759</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.132267951965332</v>
+        <v>0.0007839691825211048</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.1074665039777756</v>
+        <v>0.0002630223461892456</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.1591572612524033</v>
+        <v>0.000127393810544163</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.131535992026329</v>
+        <v>0.0002974185917992145</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.04741044342517853</v>
+        <v>0.0002808726858347654</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.2000884562730789</v>
+        <v>0.0006212390726432204</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.08762809634208679</v>
+        <v>0.0004934776807203889</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.06824266910552979</v>
+        <v>0.0001151808464783244</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.07069283723831177</v>
+        <v>0.0003236030752304941</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.1011594384908676</v>
+        <v>0.0004906771355308592</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.100823201239109</v>
+        <v>0.0001460195198887959</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.1279630810022354</v>
+        <v>0.0008376942132599652</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.1648495644330978</v>
+        <v>0.0006476063863374293</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.162235900759697</v>
+        <v>0.0009886116022244096</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0232869703322649</v>
+        <v>0.0005013816407881677</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.03619921952486038</v>
+        <v>0.0004486441030167043</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.07037807255983353</v>
+        <v>0.0001150238604168408</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.4100631177425385</v>
+        <v>0.0002902068081311882</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.4212881624698639</v>
+        <v>0.0004246406315360218</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.1385321170091629</v>
+        <v>1.761327257554512e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.1054896265268326</v>
+        <v>0.000441571872215718</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.05847105383872986</v>
+        <v>0.0001844052894739434</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.03269626200199127</v>
+        <v>0.0005844797706231475</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.02148518711328506</v>
+        <v>0.0003492832474876195</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.4159155786037445</v>
+        <v>0.0001637624227441847</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.04521698877215385</v>
+        <v>7.782421016599983e-05</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.1556076854467392</v>
+        <v>0.0003996954474132508</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.1007134392857552</v>
+        <v>0.0001398943568347022</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.04586385190486908</v>
+        <v>0.0001347508223261684</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.1946335881948471</v>
+        <v>6.789007602492347e-05</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.3150623440742493</v>
+        <v>0.0003607983526308089</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.1459053009748459</v>
+        <v>0.0007015075534582138</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.1492633521556854</v>
+        <v>9.375947411172092e-05</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.182357519865036</v>
+        <v>0.0004777990106958896</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.09006641805171967</v>
+        <v>0.0002766017278190702</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.102396547794342</v>
+        <v>0.0001719754654914141</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.2670379281044006</v>
+        <v>0.0002865759888663888</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.06421135365962982</v>
+        <v>0.000181236260687001</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.1922721415758133</v>
+        <v>0.0003114977735094726</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.2719502449035645</v>
+        <v>0.0002843235270120203</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.2058393955230713</v>
+        <v>0.0006284599076025188</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.009020000696182251</v>
+        <v>9.312984184361994e-05</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.4031866490840912</v>
+        <v>0.0002140489377779886</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.07502628862857819</v>
+        <v>1.048707599693444e-05</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.04810608178377151</v>
+        <v>0.0006403629668056965</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0863005742430687</v>
+        <v>0.000431936961831525</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.07627423852682114</v>
+        <v>0.0002324925153516233</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.0732707679271698</v>
+        <v>0.0001003763463813812</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.3953074812889099</v>
+        <v>0.0008442343678325415</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.3075630068778992</v>
+        <v>0.0006534696440212429</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.06128048524260521</v>
+        <v>0.0001824360806494951</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.1617414206266403</v>
+        <v>0.0002241824113298208</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.1785095632076263</v>
+        <v>0.0001455577003071085</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.2690405547618866</v>
+        <v>0.0001033781154546887</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.04512429982423782</v>
+        <v>0.0002088439359795302</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.1466777771711349</v>
+        <v>0.0004384546482469887</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.1901471763849258</v>
+        <v>0.001283889869228005</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.04927575588226318</v>
+        <v>0.0005974715459160507</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.3329266309738159</v>
+        <v>0.0003727099974639714</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.1190681681036949</v>
+        <v>0.000358289573341608</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.1861053854227066</v>
+        <v>0.0001450681156711653</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.04571257159113884</v>
+        <v>0.0003975361178163439</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.08630358427762985</v>
+        <v>2.687753294594586e-06</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.09052415192127228</v>
+        <v>0.001206466811709106</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.1000335589051247</v>
+        <v>0.0002359558711759746</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.01913591660559177</v>
+        <v>0.0009897089330479503</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.2218532115221024</v>
+        <v>0.0008747492101974785</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.04816316068172455</v>
+        <v>0.0005127352778799832</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.1274704784154892</v>
+        <v>0.000829711148981005</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0767708346247673</v>
+        <v>0.0009746334981173277</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.1115167513489723</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.05392175912857056</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.02712683007121086</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04525260627269745</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1011866182088852</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.02905759587883949</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2675775289535522</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.099866583943367</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4150051474571228</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.03645168244838715</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.02205854654312134</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.04457172006368637</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.06803508102893829</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.02781038545072079</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.01304424926638603</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.1701831519603729</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.1046451926231384</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.4933681488037109</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.03339833766222</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.05107448995113373</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.01747381314635277</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.03461980074644089</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0243497472256422</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.04937388002872467</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.09194019436836243</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.06514821946620941</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.07778611779212952</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.007619894109666348</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.02189420536160469</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.06799400597810745</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.0006586089730262756</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.007270866073668003</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.06955881416797638</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.02626159973442554</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.140118733048439</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.03005819208920002</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.03731954097747803</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.001837987452745438</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.04803364723920822</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.07861790060997009</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.02080409415066242</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.1976283937692642</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0.03119267337024212</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0.001263014506548643</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0.01929114200174809</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0.008778143674135208</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0.03184352815151215</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0.1343458592891693</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0.05117326229810715</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0.04475031420588493</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0.05072673037648201</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0.1358901858329773</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0.002941838931292295</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.1765004843473434</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0.01594992727041245</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0.03414500132203102</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0.007056640461087227</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0.04247277975082397</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0.01535420492291451</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.01702928356826305</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>0.002933821640908718</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0.1254272311925888</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0.1220955848693848</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>0.1046892702579498</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>0.008976948447525501</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0.02007067576050758</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0.003739053383469582</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>0.02393606118857861</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0.01824135147035122</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>0.0519128181040287</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>0.1027600318193436</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>0.05476880446076393</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>0.01758469268679619</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>0.04519420862197876</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>0.06118504703044891</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0.01247960515320301</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>0.03768051415681839</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0.04964979737997055</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0.1330396234989166</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>0.055221326649189</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>0.1516222208738327</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>0.02102776989340782</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>0.00933123379945755</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>0.04421274363994598</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>0.01378517877310514</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>0.02248385176062584</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>0.0004757740534842014</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0.04182768240571022</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>0.02092790603637695</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>0.08191221952438354</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>0.001776842633262277</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>0.0353998988866806</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>0.04061999171972275</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>0.0850585550069809</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>0.03227784857153893</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>0.01939043030142784</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>0.04409871995449066</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>0.02230336330831051</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>0.0265086330473423</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>0.07674562186002731</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>0.006611302495002747</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>0.05111736804246902</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>0.004824866075068712</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>0.02004683949053288</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>0.001709636300802231</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>0.05353793501853943</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>0.007845500484108925</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>0.09243285655975342</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>0.003359710099175572</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>0.1298231929540634</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>0.1242222785949707</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>0.02946984767913818</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>0.07897847145795822</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>0.0859895721077919</v>
-      </c>
-      <c r="DJ12" t="n">
-        <v>0.1730125099420547</v>
-      </c>
-      <c r="DK12" t="n">
-        <v>0.022328220307827</v>
-      </c>
-      <c r="DL12" t="n">
-        <v>0.03083468414843082</v>
-      </c>
-      <c r="DM12" t="n">
-        <v>0.03610982373356819</v>
-      </c>
-      <c r="DN12" t="n">
-        <v>0.02339929342269897</v>
-      </c>
-      <c r="DO12" t="n">
-        <v>0.03514395654201508</v>
-      </c>
-      <c r="DP12" t="n">
-        <v>0.009981218725442886</v>
-      </c>
-      <c r="DQ12" t="n">
-        <v>0.02749988995492458</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>0.03181290999054909</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>0.03395093604922295</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>0.05213776975870132</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>0.04416030272841454</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>0.0490439347922802</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>0.03089521452784538</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0.006859139539301395</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>0.02907831221818924</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>0.03164584189653397</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.04591257870197296</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0.02291849255561829</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>0.01563313975930214</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>0.003969372250139713</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>0.0325450599193573</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>0.03590276464819908</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>0.1300114989280701</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>0.018142469227314</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>0.03145324438810349</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>0.08321370184421539</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>0.02069947123527527</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>0.0008449351880699396</v>
-      </c>
-      <c r="EM12" t="n">
-        <v>0.1188962161540985</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>0.004254155792295933</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>0.0432322695851326</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>0.01125496346503496</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>0.001613821601495147</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>0.06373865902423859</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>0.04948949441313744</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>0.06955605745315552</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>0.01458963006734848</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>0.01893550530076027</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>0.001532012596726418</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>0.00786132737994194</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>0.0482967421412468</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>0.004130266606807709</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>0.04775124415755272</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>0.03060910478234291</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>0.05078200250864029</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>0.01898315921425819</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>0.1046959459781647</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>0.008139864541590214</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>0.001176807098090649</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>0.005632510408759117</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>0.0283911619335413</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>0.02561582438647747</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0.09079103171825409</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>0.02328905463218689</v>
-      </c>
-      <c r="FM12" t="n">
-        <v>0.03506297245621681</v>
-      </c>
-      <c r="FN12" t="n">
-        <v>0.02864048629999161</v>
-      </c>
-      <c r="FO12" t="n">
-        <v>0.07061666995286942</v>
-      </c>
-      <c r="FP12" t="n">
-        <v>0.08319251239299774</v>
-      </c>
-      <c r="FQ12" t="n">
-        <v>0.06825967133045197</v>
-      </c>
-      <c r="FR12" t="n">
-        <v>0.003664631396532059</v>
-      </c>
-      <c r="FS12" t="n">
-        <v>0.04988854750990868</v>
-      </c>
-      <c r="FT12" t="n">
-        <v>0.007254019379615784</v>
-      </c>
-      <c r="FU12" t="n">
-        <v>0.1104847937822342</v>
-      </c>
-      <c r="FV12" t="n">
-        <v>0.06488712877035141</v>
-      </c>
-      <c r="FW12" t="n">
-        <v>0.04396320879459381</v>
-      </c>
-      <c r="FX12" t="n">
-        <v>0.05493152886629105</v>
-      </c>
-      <c r="FY12" t="n">
-        <v>0.05489810556173325</v>
-      </c>
-      <c r="FZ12" t="n">
-        <v>0.03890464827418327</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>0.0385761633515358</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>0.04026616364717484</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>0.0332074873149395</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>0.01326825190335512</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>0.04154595360159874</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>0.03501451015472412</v>
-      </c>
-      <c r="GG12" t="n">
-        <v>0.003230956383049488</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.0001493887684773654</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.001623354852199554</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01443056389689445</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.003061943221837282</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.006979736499488354</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.002214366337284446</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.001858629286289215</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.00896173994988203</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.003370344871655107</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0004080350045114756</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.0007040990749374032</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.0132231218740344</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.001469211536459625</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.006134667433798313</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.001676780171692371</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.002300764201208949</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.009112604893743992</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.003273792332038283</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.0006430295761674643</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.003168388269841671</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.0005672828410752118</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.220094367861748e-05</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.0006258572684600949</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.0003247295971959829</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.0003618928312789649</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.001846310682594776</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.0003176075988449156</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0.0005237939767539501</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.0008458798401989043</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.001658466178923845</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.0006369706243276596</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.001741570420563221</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0.0005887188017368317</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.002629426773637533</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0.0001306695048697293</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.002773587591946125</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.0001645417796680704</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.001295022200793028</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0.002673376817256212</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.420054266229272e-05</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0.002908486174419522</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0.0003439506981521845</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0.0006137217278592288</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0.000145045414683409</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>5.398426583269611e-05</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0.0003724982379935682</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0.001666063908487558</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0.006039144471287727</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0.001169636845588684</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0.0003223691892344505</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0.001365459407679737</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0.001589828287251294</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0.003790660062804818</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0.001751624746248126</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0.001350979437120259</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>9.25954373087734e-05</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0.003129235468804836</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0.002735544228926301</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0.005299296695739031</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0.000826821313239634</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0.0005241081234999001</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0.003983595874160528</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0.00237110280431807</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0.001301871379837394</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0.001161804771982133</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0.003104099072515965</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>0.001269513973966241</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0.001146707683801651</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>0.001071320381015539</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0.002184707904234529</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0.0009644741658121347</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>0.0001305795158259571</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>0.0005528649780899286</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0.0009260507649742067</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0.0045306496322155</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0.0001206226734211668</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0.001308379578404129</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0.001065243850462139</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>0.0002722961944527924</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>0.001960662193596363</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>0.0007748635835014284</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>0.0005669014062732458</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0.0004568838630802929</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0.002701469231396914</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0.0005538809928111732</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0.001706010894849896</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0.0008219764567911625</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0.0001250426139449701</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0.001294462475925684</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0.0003413301892578602</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0.0006361339474096894</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0.002221069764345884</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0.00139510864391923</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0.001770611270330846</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0.00281950063072145</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>0.001751186209730804</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>0.0004946838598698378</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>0.0005291563575156033</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>0.001000116928480566</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>0.0004206950543448329</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>0.0005057852249592543</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>0.002709620865061879</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0.0002694187278393656</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>0.002269079443067312</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>0.0005229226662777364</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>8.733428694540635e-05</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>0.001537452917546034</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>0.0002018815284827724</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>0.001420401385985315</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>0.001145136426202953</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>0.002633241470903158</v>
-      </c>
-      <c r="DH13" t="n">
-        <v>0.001750361174345016</v>
-      </c>
-      <c r="DI13" t="n">
-        <v>0.0005903933779336512</v>
-      </c>
-      <c r="DJ13" t="n">
-        <v>0.0003921290626749396</v>
-      </c>
-      <c r="DK13" t="n">
-        <v>0.0004033063014503568</v>
-      </c>
-      <c r="DL13" t="n">
-        <v>0.001608557417057455</v>
-      </c>
-      <c r="DM13" t="n">
-        <v>0.0002255639847135171</v>
-      </c>
-      <c r="DN13" t="n">
-        <v>2.122364094248042e-05</v>
-      </c>
-      <c r="DO13" t="n">
-        <v>8.727493695914745e-05</v>
-      </c>
-      <c r="DP13" t="n">
-        <v>4.578908556140959e-05</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>0.0007268902263604105</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>0.001172125223092735</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>0.001000074669718742</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>0.0001194813521578908</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>0.001565738464705646</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>0.00101558945607394</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>0.0003179070772603154</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0.000675166433211416</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>0.0011961052659899</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>0.0004686680913437158</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.00139349140226841</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0.0002248587115900591</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>0.0003812166396528482</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>0.0009586450760252774</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>0.000114700203994289</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>0.002108352491632104</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>0.001717668958008289</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>0.001883546356111765</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>0.000369380199117586</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>0.001048111822456121</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>0.002218996407464147</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>0.0002470433246344328</v>
-      </c>
-      <c r="EM13" t="n">
-        <v>0.001967591466382146</v>
-      </c>
-      <c r="EN13" t="n">
-        <v>0.001168143237009645</v>
-      </c>
-      <c r="EO13" t="n">
-        <v>0.0002608029753901064</v>
-      </c>
-      <c r="EP13" t="n">
-        <v>0.001400519860908389</v>
-      </c>
-      <c r="EQ13" t="n">
-        <v>0.001366941723972559</v>
-      </c>
-      <c r="ER13" t="n">
-        <v>0.0007691786158829927</v>
-      </c>
-      <c r="ES13" t="n">
-        <v>0.001110997749492526</v>
-      </c>
-      <c r="ET13" t="n">
-        <v>5.641386087518185e-05</v>
-      </c>
-      <c r="EU13" t="n">
-        <v>0.0004052581207361072</v>
-      </c>
-      <c r="EV13" t="n">
-        <v>0.001634789747186005</v>
-      </c>
-      <c r="EW13" t="n">
-        <v>0.001356289605610073</v>
-      </c>
-      <c r="EX13" t="n">
-        <v>0.0008990554488264024</v>
-      </c>
-      <c r="EY13" t="n">
-        <v>0.0004677059478126466</v>
-      </c>
-      <c r="EZ13" t="n">
-        <v>0.002885876456275582</v>
-      </c>
-      <c r="FA13" t="n">
-        <v>0.0005627545178867877</v>
-      </c>
-      <c r="FB13" t="n">
-        <v>0.002124159829691052</v>
-      </c>
-      <c r="FC13" t="n">
-        <v>0.0001383235212415457</v>
-      </c>
-      <c r="FD13" t="n">
-        <v>4.287719639251009e-05</v>
-      </c>
-      <c r="FE13" t="n">
-        <v>0.001609786530025303</v>
-      </c>
-      <c r="FF13" t="n">
-        <v>0.0002936673990916461</v>
-      </c>
-      <c r="FG13" t="n">
-        <v>0.0001524815743323416</v>
-      </c>
-      <c r="FH13" t="n">
-        <v>0.001464055152609944</v>
-      </c>
-      <c r="FI13" t="n">
-        <v>0.002814983017742634</v>
-      </c>
-      <c r="FJ13" t="n">
-        <v>0.002018113853409886</v>
-      </c>
-      <c r="FK13" t="n">
-        <v>0.001017966540530324</v>
-      </c>
-      <c r="FL13" t="n">
-        <v>0.0009355230140499771</v>
-      </c>
-      <c r="FM13" t="n">
-        <v>0.0001341366296401247</v>
-      </c>
-      <c r="FN13" t="n">
-        <v>0.0001684143062448129</v>
-      </c>
-      <c r="FO13" t="n">
-        <v>0.0007285868632607162</v>
-      </c>
-      <c r="FP13" t="n">
-        <v>0.002901856554672122</v>
-      </c>
-      <c r="FQ13" t="n">
-        <v>0.003989743068814278</v>
-      </c>
-      <c r="FR13" t="n">
-        <v>0.002777839545160532</v>
-      </c>
-      <c r="FS13" t="n">
-        <v>0.001058608526363969</v>
-      </c>
-      <c r="FT13" t="n">
-        <v>0.001294573885388672</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>0.001345613854937255</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>0.0008845045231282711</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>0.0006678568315692246</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>0.001088370103389025</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>0.0007146573043428361</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>0.0009060584707185626</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>0.0006547977682203054</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>0.0001278911222470924</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>0.0006146925152279437</v>
-      </c>
-      <c r="GD13" t="n">
-        <v>0.002037310274317861</v>
-      </c>
-      <c r="GE13" t="n">
-        <v>0.0001850975677371025</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>0.001113347127102315</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>0.0008042510598897934</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES14" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.01365949306637049</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.004964468069374561</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.02619633637368679</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.001791006186977029</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.002627040259540081</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.01295427605509758</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.008912447839975357</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.00696042412891984</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.0009535899152979255</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.009224231354892254</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.003503430401906371</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.02549938857555389</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.007484816946089268</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.01454528793692589</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.01270756870508194</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.007155449129641056</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.00564234796911478</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.004560687579214573</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.003873938228935003</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.0004674664232879877</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.001956661464646459</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.002167259342968464</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.003999925218522549</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.0009296145872212946</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.00127864652313292</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.002428876701742411</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.00186281802598387</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.001516764052212238</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.003046661149710417</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.001266081817448139</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.002532316371798515</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.0005953963263891637</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.006254140753298998</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.006292429286986589</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0.007736187428236008</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>4.039565101265907e-05</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.001377404667437077</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0.002758856164291501</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0.007777980528771877</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0.003156183985993266</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0.0007659307448193431</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0.004758679773658514</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0.0005102540599182248</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0.001052251085639</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0.0006940431776456535</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0.003792242147028446</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0.001277448376640677</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0.006908184383064508</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0.01476408168673515</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0.01170438714325428</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0.008669879287481308</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0.01220014970749617</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0.00731348991394043</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0.00130914244800806</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0.005959782749414444</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0.006997797638177872</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0.004611817188560963</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0.00406394898891449</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0.01531012821942568</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0.004270729143172503</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0.01317688636481762</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0.008766675367951393</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0.003737937891855836</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0.00246875686571002</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0.007047948427498341</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0.008273444138467312</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0.0007819129386916757</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0.006225236225873232</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>0.004480572417378426</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0.00364255765452981</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0.005979061592370272</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0.0049213832244277</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0.003372306236997247</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0.0004228646866977215</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0.01083740219473839</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0.002616048790514469</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0.01440145540982485</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0.008567877113819122</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0.006557722110301256</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>0.01131998002529144</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>0.002284484915435314</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0.003621298354119062</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0.0005511312047019601</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0.004473458044230938</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0.001546187093481421</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0.001189886941574514</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0.002684508915990591</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>0.001001967117190361</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0.0009326976723968983</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0.001204792992211878</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0.002298115286976099</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0.004131141118705273</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0.006139837671071291</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0.00379886687733233</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0.004120951518416405</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0.002714739646762609</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>0.006210498046129942</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>0.006713002920150757</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>0.002384651219472289</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>0.005248722154647112</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0.0009236066835001111</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0.004147402010858059</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0.0003330492181703448</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>0.001998621039092541</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0.004159429576247931</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>0.001180049264803529</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0.0008951626368798316</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>0.0009918959112837911</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0.0005619234871119261</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>0.01263453904539347</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>0.003160367254167795</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>0.005951837636530399</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0.001366864540614188</v>
-      </c>
-      <c r="DJ15" t="n">
-        <v>0.007582198828458786</v>
-      </c>
-      <c r="DK15" t="n">
-        <v>0.009702775627374649</v>
-      </c>
-      <c r="DL15" t="n">
-        <v>0.00141897751018405</v>
-      </c>
-      <c r="DM15" t="n">
-        <v>0.008912527002394199</v>
-      </c>
-      <c r="DN15" t="n">
-        <v>0.0006601575296372175</v>
-      </c>
-      <c r="DO15" t="n">
-        <v>0.004528528079390526</v>
-      </c>
-      <c r="DP15" t="n">
-        <v>0.001871047890745103</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>0.004252633079886436</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>0.0006209812127053738</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>0.001672377693466842</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>0.001830856781452894</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>0.002081625163555145</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>0.001072584767825902</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>0.0003148647956550121</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0.0008041811524890363</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>0.001350579550489783</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>0.0001528768334537745</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.002317834179848433</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0.001559891039505601</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>0.002877586055546999</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>0.003018232993781567</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>0.00370395602658391</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>0.0005909209721721709</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>0.004533028695732355</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>0.005201258696615696</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>0.00119694322347641</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>0.004535282030701637</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>0.002826155163347721</v>
-      </c>
-      <c r="EL15" t="n">
-        <v>0.001785025815479457</v>
-      </c>
-      <c r="EM15" t="n">
-        <v>0.001231932314112782</v>
-      </c>
-      <c r="EN15" t="n">
-        <v>0.003936958033591509</v>
-      </c>
-      <c r="EO15" t="n">
-        <v>0.001016790047287941</v>
-      </c>
-      <c r="EP15" t="n">
-        <v>0.003254324663430452</v>
-      </c>
-      <c r="EQ15" t="n">
-        <v>0.0007100244984030724</v>
-      </c>
-      <c r="ER15" t="n">
-        <v>0.0007252257782965899</v>
-      </c>
-      <c r="ES15" t="n">
-        <v>0.006799251772463322</v>
-      </c>
-      <c r="ET15" t="n">
-        <v>0.0004328563227318227</v>
-      </c>
-      <c r="EU15" t="n">
-        <v>0.002172827487811446</v>
-      </c>
-      <c r="EV15" t="n">
-        <v>0.003462793538346887</v>
-      </c>
-      <c r="EW15" t="n">
-        <v>0.001536770956590772</v>
-      </c>
-      <c r="EX15" t="n">
-        <v>0.002940242644399405</v>
-      </c>
-      <c r="EY15" t="n">
-        <v>0.001054287422448397</v>
-      </c>
-      <c r="EZ15" t="n">
-        <v>0.004125054925680161</v>
-      </c>
-      <c r="FA15" t="n">
-        <v>0.0004662483115680516</v>
-      </c>
-      <c r="FB15" t="n">
-        <v>0.0008278632303699851</v>
-      </c>
-      <c r="FC15" t="n">
-        <v>0.002488367957994342</v>
-      </c>
-      <c r="FD15" t="n">
-        <v>0.001691316952928901</v>
-      </c>
-      <c r="FE15" t="n">
-        <v>0.001198414480313659</v>
-      </c>
-      <c r="FF15" t="n">
-        <v>0.001979582011699677</v>
-      </c>
-      <c r="FG15" t="n">
-        <v>0.006012202240526676</v>
-      </c>
-      <c r="FH15" t="n">
-        <v>0.006740560289472342</v>
-      </c>
-      <c r="FI15" t="n">
-        <v>0.00578713696449995</v>
-      </c>
-      <c r="FJ15" t="n">
-        <v>0.004913106560707092</v>
-      </c>
-      <c r="FK15" t="n">
-        <v>0.004458482377231121</v>
-      </c>
-      <c r="FL15" t="n">
-        <v>0.007173980586230755</v>
-      </c>
-      <c r="FM15" t="n">
-        <v>0.0007199442479759455</v>
-      </c>
-      <c r="FN15" t="n">
-        <v>0.003542386461049318</v>
-      </c>
-      <c r="FO15" t="n">
-        <v>0.00314165186136961</v>
-      </c>
-      <c r="FP15" t="n">
-        <v>0.009811851195991039</v>
-      </c>
-      <c r="FQ15" t="n">
-        <v>0.006870648823678493</v>
-      </c>
-      <c r="FR15" t="n">
-        <v>0.007228294387459755</v>
-      </c>
-      <c r="FS15" t="n">
-        <v>0.006611180491745472</v>
-      </c>
-      <c r="FT15" t="n">
-        <v>0.003457426559180021</v>
-      </c>
-      <c r="FU15" t="n">
-        <v>0.007236133329570293</v>
-      </c>
-      <c r="FV15" t="n">
-        <v>0.0001863184152171016</v>
-      </c>
-      <c r="FW15" t="n">
-        <v>0.002201557159423828</v>
-      </c>
-      <c r="FX15" t="n">
-        <v>0.002922730520367622</v>
-      </c>
-      <c r="FY15" t="n">
-        <v>0.005016783718019724</v>
-      </c>
-      <c r="FZ15" t="n">
-        <v>0.00564234796911478</v>
-      </c>
-      <c r="GA15" t="n">
-        <v>0.0001673107035458088</v>
-      </c>
-      <c r="GB15" t="n">
-        <v>0.004698476288467646</v>
-      </c>
-      <c r="GC15" t="n">
-        <v>0.007188772782683372</v>
-      </c>
-      <c r="GD15" t="n">
-        <v>0.001164407236501575</v>
-      </c>
-      <c r="GE15" t="n">
-        <v>0.0003672367893159389</v>
-      </c>
-      <c r="GF15" t="n">
-        <v>0.002673640148714185</v>
-      </c>
-      <c r="GG15" t="n">
-        <v>0.004652871750295162</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.0001444401277694851</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.375928256195039e-06</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0001735864789225161</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.557056233054027e-05</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.601672506192699e-05</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.060969043464866e-05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7.483001536456868e-05</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0002015339414356276</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9.231588046532124e-05</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.0001030602725222707</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.433613740839064e-06</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.0001700223365332931</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.880025592981838e-07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.740189125295728e-05</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8.149770292220637e-05</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5.826378765050322e-05</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.0001945171679835767</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.0001970877492567524</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.334174718678696e-06</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3.854126407532021e-05</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5.680309641320491e-06</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.154792127839755e-05</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.491689757443964e-08</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7.89865298429504e-05</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>4.174903006060049e-05</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>8.149455970851704e-05</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.000111347486381419</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2.601618325570598e-05</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>4.276866820873693e-05</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7.635851216036826e-05</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>3.01408363156952e-07</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.748215961735696e-05</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>8.397123747272417e-05</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.0001233824150403962</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.000115212045784574</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0.0001118268555728719</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.878209306800272e-05</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>6.659607606707141e-05</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1.189745125884656e-05</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>8.287164382636547e-05</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>8.699829049874097e-05</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>2.360342477913946e-05</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>9.675401997810695e-06</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>1.904083910631016e-05</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>4.92786020913627e-05</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0.0001563111582072452</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0.0001716017286526039</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>4.557562351692468e-05</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0.0001566789578646421</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0.0002109416236635298</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>9.56946169026196e-05</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>2.165272962884046e-05</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>6.052880053175613e-05</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>8.786137186689302e-05</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>2.910942566813901e-05</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>3.102142363786697e-05</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2.914419201260898e-05</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>4.685078965849243e-05</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0.0002830585581250489</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>1.279856951441616e-05</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>6.41963015368674e-06</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0.0001543912512715906</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>4.824853022000752e-06</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>5.193241122469772e-06</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>4.493033884500619e-06</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>4.228698162478395e-05</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>4.548636206891388e-05</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>1.978598447749391e-05</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>0.0001040397037286311</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>4.945155160385184e-05</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>5.319422052707523e-05</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>0.0001041250725393184</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>7.211962656583637e-05</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>6.69667060719803e-05</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>7.828904927009717e-05</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>6.133129500085488e-05</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>2.492196108505595e-05</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>2.121873512805905e-05</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>5.129928467795253e-06</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>7.569312583655119e-05</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>5.763289664173499e-05</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>1.961369889613707e-05</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>6.276970088947564e-05</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>2.044611755991355e-05</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>1.389304452459328e-05</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>3.159161133226007e-05</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>1.048679223458748e-07</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>7.971321792865638e-06</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>4.956147677148692e-06</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>2.507310273358598e-05</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>5.368519850890152e-05</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>7.958796777529642e-05</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>6.936163845239207e-05</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>6.703453254885972e-05</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0.000143254830618389</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>9.336797666037455e-05</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>5.92325595789589e-05</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>1.806642649171408e-05</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>0.0001054447347996756</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>3.269677108619362e-05</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>8.251324470620602e-05</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>2.743005097727291e-05</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>1.184238044515951e-05</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>5.071085979579948e-05</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>2.091449459840078e-05</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>4.61753188574221e-07</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>1.327811423834646e-05</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>1.556926144985482e-05</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>9.188805415760726e-05</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>2.123490412486717e-05</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>1.030793282552622e-05</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>5.486633381224237e-05</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>5.833153409184888e-05</v>
-      </c>
-      <c r="DJ16" t="n">
-        <v>0.0001247563777724281</v>
-      </c>
-      <c r="DK16" t="n">
-        <v>4.571595491142944e-05</v>
-      </c>
-      <c r="DL16" t="n">
-        <v>6.388184556271881e-05</v>
-      </c>
-      <c r="DM16" t="n">
-        <v>1.185954170068726e-05</v>
-      </c>
-      <c r="DN16" t="n">
-        <v>3.822737198788673e-06</v>
-      </c>
-      <c r="DO16" t="n">
-        <v>2.602904896775726e-05</v>
-      </c>
-      <c r="DP16" t="n">
-        <v>2.851881072274409e-05</v>
-      </c>
-      <c r="DQ16" t="n">
-        <v>6.932032647455344e-06</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>0.0001665278396103531</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>2.577956729510333e-05</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>3.986401679867413e-06</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>0.000125323364045471</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>3.724193084053695e-05</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>2.825277442752849e-05</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>1.157922270067502e-05</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>0.000100984689197503</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>4.97659948450746e-06</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>2.524550291127525e-05</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0.0001002493154373951</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>1.15147304313723e-05</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>2.18438890442485e-05</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>2.209523518104106e-05</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>7.229416951304302e-05</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>3.056514287891332e-06</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>5.505575245479122e-06</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>3.277014002378564e-07</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>3.913150794687681e-05</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>3.432523953961208e-07</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>2.085414416796993e-05</v>
-      </c>
-      <c r="EM16" t="n">
-        <v>4.718631680589169e-05</v>
-      </c>
-      <c r="EN16" t="n">
-        <v>5.814721225760877e-05</v>
-      </c>
-      <c r="EO16" t="n">
-        <v>3.972230842919089e-05</v>
-      </c>
-      <c r="EP16" t="n">
-        <v>0.0001187457819469273</v>
-      </c>
-      <c r="EQ16" t="n">
-        <v>1.418646206730045e-05</v>
-      </c>
-      <c r="ER16" t="n">
-        <v>5.850955858477391e-06</v>
-      </c>
-      <c r="ES16" t="n">
-        <v>4.898186671198346e-05</v>
-      </c>
-      <c r="ET16" t="n">
-        <v>2.917298297688831e-05</v>
-      </c>
-      <c r="EU16" t="n">
-        <v>2.820494046318345e-05</v>
-      </c>
-      <c r="EV16" t="n">
-        <v>8.95495104487054e-05</v>
-      </c>
-      <c r="EW16" t="n">
-        <v>3.982081398135051e-05</v>
-      </c>
-      <c r="EX16" t="n">
-        <v>1.56677942868555e-05</v>
-      </c>
-      <c r="EY16" t="n">
-        <v>7.279268174897879e-05</v>
-      </c>
-      <c r="EZ16" t="n">
-        <v>2.323609987797681e-05</v>
-      </c>
-      <c r="FA16" t="n">
-        <v>2.472407686582301e-06</v>
-      </c>
-      <c r="FB16" t="n">
-        <v>6.84817714500241e-05</v>
-      </c>
-      <c r="FC16" t="n">
-        <v>7.763133908156306e-06</v>
-      </c>
-      <c r="FD16" t="n">
-        <v>5.541763130167965e-06</v>
-      </c>
-      <c r="FE16" t="n">
-        <v>1.915113898576237e-05</v>
-      </c>
-      <c r="FF16" t="n">
-        <v>1.448953753424576e-05</v>
-      </c>
-      <c r="FG16" t="n">
-        <v>0.0001362477778457105</v>
-      </c>
-      <c r="FH16" t="n">
-        <v>7.381180330412462e-05</v>
-      </c>
-      <c r="FI16" t="n">
-        <v>0.0001014625522657298</v>
-      </c>
-      <c r="FJ16" t="n">
-        <v>6.603627298318315e-06</v>
-      </c>
-      <c r="FK16" t="n">
-        <v>0.000124195299576968</v>
-      </c>
-      <c r="FL16" t="n">
-        <v>0.0001638633693801239</v>
-      </c>
-      <c r="FM16" t="n">
-        <v>4.696669202530757e-05</v>
-      </c>
-      <c r="FN16" t="n">
-        <v>2.423275509499945e-05</v>
-      </c>
-      <c r="FO16" t="n">
-        <v>5.528096153284423e-05</v>
-      </c>
-      <c r="FP16" t="n">
-        <v>0.0002827255520969629</v>
-      </c>
-      <c r="FQ16" t="n">
-        <v>3.642756564659066e-05</v>
-      </c>
-      <c r="FR16" t="n">
-        <v>3.713712794706225e-05</v>
-      </c>
-      <c r="FS16" t="n">
-        <v>9.613021393306553e-05</v>
-      </c>
-      <c r="FT16" t="n">
-        <v>9.254491305910051e-05</v>
-      </c>
-      <c r="FU16" t="n">
-        <v>4.676249955082312e-05</v>
-      </c>
-      <c r="FV16" t="n">
-        <v>7.733289385214448e-05</v>
-      </c>
-      <c r="FW16" t="n">
-        <v>5.166553819435649e-06</v>
-      </c>
-      <c r="FX16" t="n">
-        <v>0.0001245360035682097</v>
-      </c>
-      <c r="FY16" t="n">
-        <v>0.0001242376456502825</v>
-      </c>
-      <c r="FZ16" t="n">
-        <v>0.0001096540509024635</v>
-      </c>
-      <c r="GA16" t="n">
-        <v>1.598236485733651e-05</v>
-      </c>
-      <c r="GB16" t="n">
-        <v>1.132571742346045e-05</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>3.666912380140275e-05</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>2.689129723876249e-05</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>2.007642433454748e-05</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>2.547285475884564e-06</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>4.222733696224168e-05</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.02155405655503273</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.1322426199913025</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2073134332895279</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.03140289336442947</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.02816419675946236</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.005365027114748955</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.008089710958302021</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.01427031494677067</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.07340185344219208</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.04421262443065643</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1596615165472031</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.2178650498390198</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.07245912402868271</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.04079911112785339</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.01121666003018618</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.02812591008841991</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.007645847275853157</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.0950312539935112</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.0133020356297493</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.05720462650060654</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.03019537776708603</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.0005594212561845779</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.05095470324158669</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.006671087816357613</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.04351702332496643</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.03968371823430061</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.009762299247086048</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.02768213115632534</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.07505808770656586</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.01329622603952885</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.01570467464625835</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.0588558167219162</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0.008398601785302162</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.06296702474355698</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.03495141863822937</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.07385300099849701</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.005612051114439964</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0.007843077182769775</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.04803600162267685</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0.02376668527722359</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0.01235240418463945</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0.008875600062310696</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0.01290493085980415</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0.008729731664061546</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0.01634615659713745</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0.01359896548092365</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0.03866612911224365</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0.08676153421401978</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0.07074612379074097</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0.07645458728075027</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0.02048190869390965</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0.008952749893069267</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0.01290739886462688</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>0.01947772689163685</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>0.0244576632976532</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0.07176777720451355</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0.05386769026517868</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0.01193523034453392</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0.1115997061133385</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0.01335034240037203</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0.0005424674600362778</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0.03672231361269951</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0.0168477613478899</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0.01494578644633293</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0.009615127928555012</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0.02047256380319595</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0.03533266857266426</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0.01297192741185427</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0.04896702244877815</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>0.01610585302114487</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0.04404358938336372</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>0.01530380547046661</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0.02051021531224251</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>0.05414193123579025</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0.07316620647907257</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0.04100028425455093</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0.01220982614904642</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0.00640342989936471</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>0.004626341164112091</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>0.05475621670484543</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>0.03392425552010536</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>0.002401642501354218</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>0.02358282171189785</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0.03499478846788406</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0.01166306622326374</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0.004260236397385597</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0.008043412119150162</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>0.01015827059745789</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>0.004367676097899675</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0.02206850238144398</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0.04235579073429108</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0.004628929775208235</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0.02013003453612328</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0.005017208866775036</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0.06306839734315872</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>0.02968552708625793</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>0.008121403865516186</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>0.04074804857373238</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>0.03732693940401077</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>0.001326348632574081</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0.02017543837428093</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0.03354392945766449</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0.01958228088915348</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0.01860159263014793</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>0.007681772112846375</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>0.008756646886467934</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>0.002502288669347763</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0.01342212408781052</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0.04116328433156013</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>0.0003775209188461304</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>0.007783787325024605</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>0.03204919397830963</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>0.008692784234881401</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>0.01172512955963612</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>0.004597919527441263</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>0.06768885999917984</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>0.01459955051541328</v>
-      </c>
-      <c r="DN17" t="n">
-        <v>0.02976072579622269</v>
-      </c>
-      <c r="DO17" t="n">
-        <v>0.02143688499927521</v>
-      </c>
-      <c r="DP17" t="n">
-        <v>0.005444360896945</v>
-      </c>
-      <c r="DQ17" t="n">
-        <v>0.03080093488097191</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>0.04319441318511963</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>0.007064216770231724</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>0.03265118226408958</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>0.0008851364254951477</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>0.002301812171936035</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>0.03377649188041687</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0.01851547509431839</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>0.003960859961807728</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>0.007060861214995384</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.04883013293147087</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0.007690861821174622</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>0.02748825401067734</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>0.02957724779844284</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>0.002955189906060696</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>0.002452362328767776</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>0.01416562963277102</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>0.02991722524166107</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>0.03311911970376968</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>0.004797555506229401</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>0.003063040785491467</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>0.006053217686712742</v>
-      </c>
-      <c r="EM17" t="n">
-        <v>0.02740035206079483</v>
-      </c>
-      <c r="EN17" t="n">
-        <v>0.01532167289406061</v>
-      </c>
-      <c r="EO17" t="n">
-        <v>0.03486157208681107</v>
-      </c>
-      <c r="EP17" t="n">
-        <v>0.04544152319431305</v>
-      </c>
-      <c r="EQ17" t="n">
-        <v>0.01385220140218735</v>
-      </c>
-      <c r="ER17" t="n">
-        <v>0.03683673590421677</v>
-      </c>
-      <c r="ES17" t="n">
-        <v>0.02388587780296803</v>
-      </c>
-      <c r="ET17" t="n">
-        <v>0.0005404544062912464</v>
-      </c>
-      <c r="EU17" t="n">
-        <v>0.005086446180939674</v>
-      </c>
-      <c r="EV17" t="n">
-        <v>0.00146877218503505</v>
-      </c>
-      <c r="EW17" t="n">
-        <v>0.04210787266492844</v>
-      </c>
-      <c r="EX17" t="n">
-        <v>0.005987848155200481</v>
-      </c>
-      <c r="EY17" t="n">
-        <v>0.01580595783889294</v>
-      </c>
-      <c r="EZ17" t="n">
-        <v>0.03361594676971436</v>
-      </c>
-      <c r="FA17" t="n">
-        <v>0.0141283068805933</v>
-      </c>
-      <c r="FB17" t="n">
-        <v>0.01753081567585468</v>
-      </c>
-      <c r="FC17" t="n">
-        <v>0.00308620254509151</v>
-      </c>
-      <c r="FD17" t="n">
-        <v>0.006525162607431412</v>
-      </c>
-      <c r="FE17" t="n">
-        <v>0.002205103170126677</v>
-      </c>
-      <c r="FF17" t="n">
-        <v>0.02185602486133575</v>
-      </c>
-      <c r="FG17" t="n">
-        <v>0.01639068871736526</v>
-      </c>
-      <c r="FH17" t="n">
-        <v>0.01851572468876839</v>
-      </c>
-      <c r="FI17" t="n">
-        <v>0.06456629931926727</v>
-      </c>
-      <c r="FJ17" t="n">
-        <v>0.0156300887465477</v>
-      </c>
-      <c r="FK17" t="n">
-        <v>0.003124572336673737</v>
-      </c>
-      <c r="FL17" t="n">
-        <v>0.03786381334066391</v>
-      </c>
-      <c r="FM17" t="n">
-        <v>0.04669663310050964</v>
-      </c>
-      <c r="FN17" t="n">
-        <v>0.004937924444675446</v>
-      </c>
-      <c r="FO17" t="n">
-        <v>0.01171911507844925</v>
-      </c>
-      <c r="FP17" t="n">
-        <v>0.08838508278131485</v>
-      </c>
-      <c r="FQ17" t="n">
-        <v>0.014814761467278</v>
-      </c>
-      <c r="FR17" t="n">
-        <v>0.04518835619091988</v>
-      </c>
-      <c r="FS17" t="n">
-        <v>0.004513261839747429</v>
-      </c>
-      <c r="FT17" t="n">
-        <v>0.03030825220048428</v>
-      </c>
-      <c r="FU17" t="n">
-        <v>0.03382403403520584</v>
-      </c>
-      <c r="FV17" t="n">
-        <v>0.009910327382385731</v>
-      </c>
-      <c r="FW17" t="n">
-        <v>0.01465746760368347</v>
-      </c>
-      <c r="FX17" t="n">
-        <v>0.08644535392522812</v>
-      </c>
-      <c r="FY17" t="n">
-        <v>0.02444792538881302</v>
-      </c>
-      <c r="FZ17" t="n">
-        <v>0.01394612528383732</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>0.02866899780929089</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0.04103536903858185</v>
-      </c>
-      <c r="GC17" t="n">
-        <v>0.07545164227485657</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0.02150535956025124</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>0.01406987942755222</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>0.008347341790795326</v>
-      </c>
-      <c r="GG17" t="n">
-        <v>0.02185722254216671</v>
+        <v>6.88017244101502e-05</v>
       </c>
     </row>
   </sheetData>
